--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5D77F-D9FF-4E0A-B821-439AA12C3F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47948E-AD8F-4724-A71F-EFC4E782EDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APR-25" sheetId="1" r:id="rId1"/>
@@ -2452,15 +2452,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Casting I</t>
-  </si>
-  <si>
-    <t>Strat Time</t>
   </si>
   <si>
     <t>Stop Time</t>
@@ -2556,9 +2553,6 @@
     <t>Punching Rejection</t>
   </si>
   <si>
-    <t xml:space="preserve">In Percentage </t>
-  </si>
-  <si>
     <t>Annealing AF&amp; BF</t>
   </si>
   <si>
@@ -2616,9 +2610,6 @@
     <t>Sorting Rejection</t>
   </si>
   <si>
-    <t>In Percentage</t>
-  </si>
-  <si>
     <t>Dispatch</t>
   </si>
   <si>
@@ -2641,9 +2632,6 @@
   </si>
   <si>
     <t>Water Consumption</t>
-  </si>
-  <si>
-    <t>water Hardness input</t>
   </si>
   <si>
     <t xml:space="preserve">                  </t>
@@ -2826,7 +2814,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2847,19 +2835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2942,7 +2918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3041,12 +3017,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3110,11 +3080,64 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3122,11 +3145,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3134,94 +3154,27 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3509,9 +3462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M53" sqref="M53"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3615,16 +3568,15 @@
       <c r="AD1" s="2">
         <v>45776</v>
       </c>
-      <c r="AE1" s="50">
+      <c r="AE1" s="48">
         <v>45777</v>
       </c>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="72"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="68"/>
+      <c r="AL1" s="9"/>
     </row>
     <row r="2" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -3657,16 +3609,12 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
+      <c r="AE2" s="49"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
     </row>
     <row r="3" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -3756,19 +3704,15 @@
       <c r="AD3" s="8">
         <v>78100</v>
       </c>
-      <c r="AE3" s="51">
+      <c r="AE3" s="49">
         <v>83289</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
     </row>
     <row r="4" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3778,58 +3722,54 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="44">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="41">
-        <v>0</v>
-      </c>
-      <c r="O4" s="46">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44">
         <v>0.39930555555555558</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
       <c r="U4" s="8">
         <v>0</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4" s="44">
         <v>10.15</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="48" t="s">
-        <v>66</v>
+      <c r="AB4" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
+      <c r="AE4" s="49"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
     </row>
     <row r="5" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <v>0.3298611111111111</v>
       </c>
       <c r="G5" s="8">
@@ -3840,7 +3780,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="46">
+      <c r="M5" s="44">
         <v>0.3576388888888889</v>
       </c>
       <c r="N5" s="8">
@@ -3860,25 +3800,21 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="47" t="s">
-        <v>65</v>
+      <c r="AA5" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="79">
+      <c r="AE5" s="67">
         <v>0.29166666666666669</v>
       </c>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
     </row>
     <row r="6" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -3967,17 +3903,13 @@
       <c r="AD6" s="8">
         <v>55</v>
       </c>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="81"/>
+      <c r="AE6" s="49"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
         <v>148</v>
@@ -4066,19 +3998,16 @@
       <c r="AD7" s="8">
         <v>199</v>
       </c>
-      <c r="AE7" s="51">
+      <c r="AE7" s="49">
         <v>183</v>
       </c>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="81"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
     </row>
     <row r="8" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -4165,19 +4094,15 @@
       <c r="AD8" s="8">
         <v>0</v>
       </c>
-      <c r="AE8" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
+      <c r="AE8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
     </row>
     <row r="9" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" ref="B9:AE9" si="0">+B7/B3</f>
@@ -4292,20 +4217,18 @@
         <f t="shared" si="0"/>
         <v>2.5480153649167733E-3</v>
       </c>
-      <c r="AE9" s="52">
+      <c r="AE9" s="50">
         <f t="shared" si="0"/>
         <v>2.197168893851529E-3</v>
       </c>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="81"/>
-      <c r="AK9" s="81"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
     </row>
     <row r="10" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8">
         <v>1897</v>
@@ -4394,19 +4317,15 @@
       <c r="AD10" s="8">
         <v>4217</v>
       </c>
-      <c r="AE10" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="81"/>
+      <c r="AE10" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
     </row>
     <row r="11" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="15">
         <f t="shared" ref="B11:AE11" si="1">+B3/(1440-B6)*60</f>
@@ -4522,20 +4441,18 @@
         <f t="shared" si="1"/>
         <v>3383.3935018050543</v>
       </c>
-      <c r="AE11" s="53">
+      <c r="AE11" s="51">
         <f t="shared" si="1"/>
         <v>3470.375</v>
       </c>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
-        <v>10</v>
+      <c r="A12" s="63" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
@@ -4624,20 +4541,19 @@
       <c r="AD12" s="18">
         <v>51.25</v>
       </c>
-      <c r="AE12" s="54">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="81"/>
+      <c r="AE12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="21"/>
       <c r="AL12" s="21"/>
     </row>
     <row r="13" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <v>50</v>
@@ -4726,19 +4642,16 @@
       <c r="AD13" s="8">
         <v>55</v>
       </c>
-      <c r="AE13" s="51">
+      <c r="AE13" s="49">
         <v>50</v>
       </c>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="81"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="22"/>
     </row>
     <row r="14" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
@@ -4827,19 +4740,16 @@
       <c r="AD14" s="8">
         <v>0</v>
       </c>
-      <c r="AE14" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="81"/>
+      <c r="AE14" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="22"/>
     </row>
     <row r="15" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4870,13 +4780,10 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="81"/>
+      <c r="AE15" s="49"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="22"/>
     </row>
     <row r="16" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -4909,17 +4816,14 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="81"/>
-    </row>
-    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE16" s="49"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="22"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8">
         <v>12817</v>
@@ -5008,19 +4912,16 @@
       <c r="AD17" s="8">
         <v>22407</v>
       </c>
-      <c r="AE17" s="51">
+      <c r="AE17" s="49">
         <v>22407</v>
       </c>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="81"/>
-    </row>
-    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="22"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>560</v>
@@ -5109,19 +5010,16 @@
       <c r="AD18" s="8">
         <v>560</v>
       </c>
-      <c r="AE18" s="51">
+      <c r="AE18" s="49">
         <v>560</v>
       </c>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="81"/>
-    </row>
-    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="22"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8">
         <v>256</v>
@@ -5210,19 +5108,16 @@
       <c r="AD19" s="8">
         <v>190</v>
       </c>
-      <c r="AE19" s="51">
+      <c r="AE19" s="49">
         <v>189</v>
       </c>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="81"/>
-    </row>
-    <row r="20" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="22"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
@@ -5311,19 +5206,16 @@
       <c r="AD20" s="8">
         <v>2</v>
       </c>
-      <c r="AE20" s="51">
+      <c r="AE20" s="49">
         <v>2</v>
       </c>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="81"/>
-    </row>
-    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="22"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>63</v>
@@ -5412,19 +5304,16 @@
       <c r="AD21" s="8">
         <v>46</v>
       </c>
-      <c r="AE21" s="51">
+      <c r="AE21" s="49">
         <v>46</v>
       </c>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="81"/>
-    </row>
-    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="22"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8">
         <v>336</v>
@@ -5513,17 +5402,14 @@
       <c r="AD22" s="8">
         <v>322</v>
       </c>
-      <c r="AE22" s="51">
+      <c r="AE22" s="49">
         <v>322</v>
       </c>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="81"/>
-    </row>
-    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="22"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5554,17 +5440,14 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="81"/>
-    </row>
-    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE23" s="49"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="22"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="24">
         <v>247228</v>
@@ -5653,19 +5536,16 @@
       <c r="AD24" s="8">
         <v>102890</v>
       </c>
-      <c r="AE24" s="51">
+      <c r="AE24" s="49">
         <v>79658</v>
       </c>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="81"/>
-    </row>
-    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="97" t="s">
-        <v>21</v>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="22"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="73" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="24">
         <v>32150</v>
@@ -5754,19 +5634,16 @@
       <c r="AD25" s="8">
         <v>50336</v>
       </c>
-      <c r="AE25" s="51">
+      <c r="AE25" s="49">
         <v>23232</v>
       </c>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="81"/>
-    </row>
-    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="97" t="s">
-        <v>22</v>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="22"/>
+    </row>
+    <row r="26" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="24">
         <f>+B27-B25</f>
@@ -5883,20 +5760,19 @@
         <f t="shared" si="9"/>
         <v>42087</v>
       </c>
-      <c r="AE26" s="55">
+      <c r="AE26" s="53">
         <f t="shared" ref="AE26" si="10">+AE27-AE25</f>
         <v>28391</v>
       </c>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="81"/>
-    </row>
-    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="s">
-        <v>23</v>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="22"/>
+    </row>
+    <row r="27" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
+        <v>22</v>
       </c>
       <c r="B27" s="24">
         <v>86645</v>
@@ -5985,19 +5861,18 @@
       <c r="AD27" s="25">
         <v>92423</v>
       </c>
-      <c r="AE27" s="56">
+      <c r="AE27" s="54">
         <v>51623</v>
       </c>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="81"/>
-    </row>
-    <row r="28" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="22"/>
+    </row>
+    <row r="28" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="27">
         <f>(+B25/B3)*100</f>
@@ -6112,18 +5987,17 @@
         <f t="shared" si="18"/>
         <v>64.450704225352112</v>
       </c>
-      <c r="AE28" s="57">
+      <c r="AE28" s="55">
         <f t="shared" ref="AE28" si="19">(+AE25/AE3)*100</f>
         <v>27.893239203256133</v>
       </c>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="90"/>
-      <c r="AK28" s="81"/>
-    </row>
-    <row r="29" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="22"/>
+    </row>
+    <row r="29" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6154,17 +6028,14 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="81"/>
-    </row>
-    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
-        <v>25</v>
+      <c r="AE29" s="49"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="22"/>
+    </row>
+    <row r="30" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="8">
         <v>7280</v>
@@ -6253,19 +6124,16 @@
       <c r="AD30" s="8">
         <v>7098</v>
       </c>
-      <c r="AE30" s="51">
+      <c r="AE30" s="49">
         <v>5096</v>
       </c>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="81"/>
-    </row>
-    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
-        <v>26</v>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="22"/>
+    </row>
+    <row r="31" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="73" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="15">
         <f>+(B30/B3)*1000</f>
@@ -6380,18 +6248,17 @@
         <f t="shared" si="20"/>
         <v>90.883482714468627</v>
       </c>
-      <c r="AE31" s="53">
+      <c r="AE31" s="51">
         <f t="shared" si="20"/>
         <v>61.184550180696128</v>
       </c>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="90"/>
-      <c r="AK31" s="81"/>
-    </row>
-    <row r="32" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="22"/>
+    </row>
+    <row r="32" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6422,17 +6289,14 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="84"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="84"/>
-      <c r="AJ32" s="90"/>
-      <c r="AK32" s="81"/>
+      <c r="AE32" s="49"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="22"/>
     </row>
     <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="8">
         <v>193</v>
@@ -6521,19 +6385,16 @@
       <c r="AD33" s="8">
         <v>179</v>
       </c>
-      <c r="AE33" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="84"/>
-      <c r="AJ33" s="90"/>
-      <c r="AK33" s="81"/>
+      <c r="AE33" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="22"/>
     </row>
     <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="29">
         <v>253</v>
@@ -6622,19 +6483,16 @@
       <c r="AD34" s="8">
         <v>244</v>
       </c>
-      <c r="AE34" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="84"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="90"/>
-      <c r="AK34" s="81"/>
+      <c r="AE34" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="22"/>
     </row>
     <row r="35" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -6665,13 +6523,9 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="84"/>
-      <c r="AH35" s="84"/>
-      <c r="AI35" s="84"/>
-      <c r="AJ35" s="81"/>
-      <c r="AK35" s="81"/>
+      <c r="AE35" s="49"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
     </row>
     <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
@@ -6704,17 +6558,14 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="84"/>
-      <c r="AG36" s="84"/>
-      <c r="AH36" s="84"/>
-      <c r="AI36" s="84"/>
-      <c r="AJ36" s="90"/>
-      <c r="AK36" s="81"/>
+      <c r="AE36" s="49"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="22"/>
     </row>
     <row r="37" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8">
         <v>40</v>
@@ -6803,15 +6654,11 @@
       <c r="AD37" s="8">
         <v>35</v>
       </c>
-      <c r="AE37" s="51">
+      <c r="AE37" s="49">
         <v>40</v>
       </c>
-      <c r="AF37" s="84"/>
-      <c r="AG37" s="84"/>
-      <c r="AH37" s="84"/>
-      <c r="AI37" s="84"/>
-      <c r="AJ37" s="81"/>
-      <c r="AK37" s="81"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
     </row>
     <row r="38" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
@@ -6844,17 +6691,14 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="84"/>
-      <c r="AG38" s="84"/>
-      <c r="AH38" s="84"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="90"/>
-      <c r="AK38" s="81"/>
+      <c r="AE38" s="49"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="22"/>
     </row>
     <row r="39" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
-        <v>31</v>
+      <c r="A39" s="74" t="s">
+        <v>30</v>
       </c>
       <c r="B39" s="8">
         <v>47043</v>
@@ -6943,19 +6787,16 @@
       <c r="AD39" s="8">
         <v>60323</v>
       </c>
-      <c r="AE39" s="51">
+      <c r="AE39" s="49">
         <v>57525</v>
       </c>
-      <c r="AF39" s="84"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="84"/>
-      <c r="AI39" s="84"/>
-      <c r="AJ39" s="84"/>
-      <c r="AK39" s="81"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
     </row>
     <row r="40" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="97" t="s">
-        <v>32</v>
+      <c r="A40" s="73" t="s">
+        <v>31</v>
       </c>
       <c r="B40" s="8">
         <v>70</v>
@@ -7044,19 +6885,15 @@
       <c r="AD40" s="8">
         <v>127.5</v>
       </c>
-      <c r="AE40" s="51">
+      <c r="AE40" s="49">
         <v>99</v>
       </c>
-      <c r="AF40" s="84"/>
-      <c r="AG40" s="84"/>
-      <c r="AH40" s="84"/>
-      <c r="AI40" s="84"/>
-      <c r="AJ40" s="81"/>
-      <c r="AK40" s="81"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
     </row>
     <row r="41" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="97" t="s">
-        <v>33</v>
+      <c r="A41" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="8">
         <v>168</v>
@@ -7145,19 +6982,15 @@
       <c r="AD41" s="8">
         <v>214</v>
       </c>
-      <c r="AE41" s="51">
+      <c r="AE41" s="49">
         <v>205</v>
       </c>
-      <c r="AF41" s="84"/>
-      <c r="AG41" s="84"/>
-      <c r="AH41" s="84"/>
-      <c r="AI41" s="84"/>
-      <c r="AJ41" s="81"/>
-      <c r="AK41" s="81"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
     </row>
     <row r="42" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="97" t="s">
-        <v>74</v>
+      <c r="A42" s="73" t="s">
+        <v>70</v>
       </c>
       <c r="B42" s="15">
         <f t="shared" ref="B42:AE42" si="21">+B41*100/B39</f>
@@ -7275,16 +7108,14 @@
         <f t="shared" si="21"/>
         <v>0.35475689206438671</v>
       </c>
-      <c r="AE42" s="53">
+      <c r="AE42" s="51">
         <f t="shared" si="21"/>
         <v>0.35636679704476315</v>
       </c>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="87"/>
-      <c r="AH42" s="87"/>
-      <c r="AI42" s="87"/>
-      <c r="AJ42" s="81"/>
-      <c r="AK42" s="81"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
     </row>
     <row r="43" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
@@ -7317,17 +7148,13 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="51"/>
-      <c r="AF43" s="84"/>
-      <c r="AG43" s="84"/>
-      <c r="AH43" s="84"/>
-      <c r="AI43" s="84"/>
-      <c r="AJ43" s="81"/>
-      <c r="AK43" s="81"/>
+      <c r="AE43" s="49"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
     </row>
     <row r="44" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="98" t="s">
-        <v>35</v>
+      <c r="A44" s="74" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="8">
         <v>0</v>
@@ -7416,19 +7243,16 @@
       <c r="AD44" s="8">
         <v>0</v>
       </c>
-      <c r="AE44" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="84"/>
-      <c r="AG44" s="84"/>
-      <c r="AH44" s="84"/>
-      <c r="AI44" s="84"/>
-      <c r="AJ44" s="84"/>
-      <c r="AK44" s="81"/>
+      <c r="AE44" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
     </row>
     <row r="45" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="8">
         <v>27605</v>
@@ -7517,19 +7341,15 @@
       <c r="AD45" s="8">
         <v>28766</v>
       </c>
-      <c r="AE45" s="51">
+      <c r="AE45" s="49">
         <v>17595</v>
       </c>
-      <c r="AF45" s="84"/>
-      <c r="AG45" s="84"/>
-      <c r="AH45" s="84"/>
-      <c r="AI45" s="84"/>
-      <c r="AJ45" s="81"/>
-      <c r="AK45" s="81"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
     </row>
     <row r="46" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="8">
         <v>27922</v>
@@ -7618,19 +7438,16 @@
       <c r="AD46" s="8">
         <v>30617</v>
       </c>
-      <c r="AE46" s="51">
+      <c r="AE46" s="49">
         <v>18379</v>
       </c>
-      <c r="AF46" s="84"/>
-      <c r="AG46" s="84"/>
-      <c r="AH46" s="84"/>
-      <c r="AI46" s="84"/>
-      <c r="AJ46" s="92"/>
-      <c r="AK46" s="81"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="30"/>
     </row>
     <row r="47" spans="1:37" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="97" t="s">
-        <v>38</v>
+      <c r="A47" s="73" t="s">
+        <v>36</v>
       </c>
       <c r="B47" s="31">
         <f t="shared" ref="B47:AE47" si="22">SUM(B44:B46)</f>
@@ -7748,20 +7565,19 @@
         <f t="shared" si="22"/>
         <v>59383</v>
       </c>
-      <c r="AE47" s="58">
+      <c r="AE47" s="56">
         <f t="shared" si="22"/>
         <v>35974</v>
       </c>
-      <c r="AF47" s="93"/>
-      <c r="AG47" s="93"/>
-      <c r="AH47" s="93"/>
-      <c r="AI47" s="93"/>
-      <c r="AJ47" s="92"/>
-      <c r="AK47" s="81"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AK47"/>
     </row>
     <row r="48" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="97" t="s">
-        <v>39</v>
+      <c r="A48" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="B48" s="8">
         <v>40</v>
@@ -7850,17 +7666,13 @@
       <c r="AD48" s="8">
         <v>30</v>
       </c>
-      <c r="AE48" s="51">
+      <c r="AE48" s="49">
         <v>73.5</v>
       </c>
-      <c r="AF48" s="84"/>
-      <c r="AG48" s="84"/>
-      <c r="AH48" s="84"/>
-      <c r="AI48" s="84"/>
-      <c r="AJ48" s="81"/>
-      <c r="AK48" s="81"/>
-    </row>
-    <row r="49" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+    </row>
+    <row r="49" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -7891,17 +7703,13 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
-      <c r="AE49" s="51"/>
-      <c r="AF49" s="84"/>
-      <c r="AG49" s="84"/>
-      <c r="AH49" s="84"/>
-      <c r="AI49" s="84"/>
-      <c r="AJ49" s="81"/>
-      <c r="AK49" s="81"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A50" s="73" t="s">
-        <v>40</v>
+      <c r="AE49" s="49"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A50" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -7932,17 +7740,13 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
-      <c r="AE50" s="51"/>
-      <c r="AF50" s="84"/>
-      <c r="AG50" s="84"/>
-      <c r="AH50" s="84"/>
-      <c r="AI50" s="84"/>
-      <c r="AJ50" s="81"/>
-      <c r="AK50" s="81"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A51" s="73" t="s">
-        <v>41</v>
+      <c r="AE50" s="49"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A51" s="63" t="s">
+        <v>39</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -7977,17 +7781,13 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
-      <c r="AE51" s="51"/>
-      <c r="AF51" s="84"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
-      <c r="AI51" s="84"/>
-      <c r="AJ51" s="81"/>
-      <c r="AK51" s="81"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A52" s="73" t="s">
-        <v>42</v>
+      <c r="AE51" s="49"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A52" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8018,17 +7818,13 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
-      <c r="AE52" s="51"/>
-      <c r="AF52" s="84"/>
-      <c r="AG52" s="84"/>
-      <c r="AH52" s="84"/>
-      <c r="AI52" s="84"/>
-      <c r="AJ52" s="81"/>
-      <c r="AK52" s="81"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A53" s="73" t="s">
-        <v>43</v>
+      <c r="AE52" s="49"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A53" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8059,15 +7855,11 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
-      <c r="AE53" s="51"/>
-      <c r="AF53" s="84"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="84"/>
-      <c r="AJ53" s="81"/>
-      <c r="AK53" s="81"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AE53" s="49"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8098,17 +7890,13 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="84"/>
-      <c r="AG54" s="84"/>
-      <c r="AH54" s="84"/>
-      <c r="AI54" s="84"/>
-      <c r="AJ54" s="81"/>
-      <c r="AK54" s="81"/>
-    </row>
-    <row r="55" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="99" t="s">
-        <v>44</v>
+      <c r="AE54" s="49"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+    </row>
+    <row r="55" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="75" t="s">
+        <v>42</v>
       </c>
       <c r="B55" s="8">
         <v>39586</v>
@@ -8197,19 +7985,15 @@
       <c r="AD55" s="8">
         <v>61178</v>
       </c>
-      <c r="AE55" s="51">
+      <c r="AE55" s="49">
         <v>67012</v>
       </c>
-      <c r="AF55" s="84"/>
-      <c r="AG55" s="84"/>
-      <c r="AH55" s="84"/>
-      <c r="AI55" s="84"/>
-      <c r="AJ55" s="81"/>
-      <c r="AK55" s="81"/>
-    </row>
-    <row r="56" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="100" t="s">
-        <v>45</v>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+    </row>
+    <row r="56" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="76" t="s">
+        <v>43</v>
       </c>
       <c r="B56" s="8">
         <v>27</v>
@@ -8298,19 +8082,15 @@
       <c r="AD56" s="8">
         <v>77</v>
       </c>
-      <c r="AE56" s="51">
+      <c r="AE56" s="49">
         <v>58</v>
       </c>
-      <c r="AF56" s="84"/>
-      <c r="AG56" s="84"/>
-      <c r="AH56" s="84"/>
-      <c r="AI56" s="84"/>
-      <c r="AJ56" s="81"/>
-      <c r="AK56" s="81"/>
-    </row>
-    <row r="57" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+    </row>
+    <row r="57" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8341,17 +8121,13 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
-      <c r="AE57" s="51"/>
-      <c r="AF57" s="84"/>
-      <c r="AG57" s="84"/>
-      <c r="AH57" s="84"/>
-      <c r="AI57" s="84"/>
-      <c r="AJ57" s="81"/>
-      <c r="AK57" s="81"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A58" s="76" t="s">
-        <v>47</v>
+      <c r="AE57" s="49"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A58" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="B58" s="8">
         <v>7.5</v>
@@ -8440,19 +8216,15 @@
       <c r="AD58" s="8">
         <v>0</v>
       </c>
-      <c r="AE58" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="84"/>
-      <c r="AG58" s="84"/>
-      <c r="AH58" s="84"/>
-      <c r="AI58" s="84"/>
-      <c r="AJ58" s="81"/>
-      <c r="AK58" s="81"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
-        <v>48</v>
+      <c r="AE58" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="B59" s="8">
         <v>0</v>
@@ -8541,19 +8313,15 @@
       <c r="AD59" s="8">
         <v>0</v>
       </c>
-      <c r="AE59" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="84"/>
-      <c r="AG59" s="84"/>
-      <c r="AH59" s="84"/>
-      <c r="AI59" s="84"/>
-      <c r="AJ59" s="81"/>
-      <c r="AK59" s="81"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A60" s="77" t="s">
-        <v>49</v>
+      <c r="AE59" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A60" s="66" t="s">
+        <v>47</v>
       </c>
       <c r="B60" s="8">
         <v>40</v>
@@ -8642,148 +8410,142 @@
       <c r="AD60" s="8">
         <v>0</v>
       </c>
-      <c r="AE60" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="84"/>
-      <c r="AG60" s="84"/>
-      <c r="AH60" s="84"/>
-      <c r="AI60" s="84"/>
-      <c r="AJ60" s="81"/>
-      <c r="AK60" s="81"/>
-    </row>
-    <row r="61" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE60" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+    </row>
+    <row r="61" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="38">
-        <f t="shared" ref="B61:AF61" si="23">SUM(B58:B60)</f>
+        <v>48</v>
+      </c>
+      <c r="B61" s="36">
+        <f t="shared" ref="B61:AE61" si="23">SUM(B58:B60)</f>
         <v>47.5</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="36">
         <f t="shared" si="23"/>
         <v>52</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="36">
         <f t="shared" si="23"/>
         <v>46</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="36">
         <f t="shared" si="23"/>
         <v>49.5</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="36">
         <f t="shared" si="23"/>
         <v>24.5</v>
       </c>
-      <c r="H61" s="38">
+      <c r="H61" s="36">
         <f t="shared" si="23"/>
         <v>101.5</v>
       </c>
-      <c r="I61" s="38">
+      <c r="I61" s="36">
         <f t="shared" si="23"/>
         <v>65</v>
       </c>
-      <c r="J61" s="38">
+      <c r="J61" s="36">
         <f t="shared" si="23"/>
         <v>68.5</v>
       </c>
-      <c r="K61" s="38">
+      <c r="K61" s="36">
         <f t="shared" si="23"/>
         <v>92.5</v>
       </c>
-      <c r="L61" s="38">
+      <c r="L61" s="36">
         <f t="shared" si="23"/>
         <v>97</v>
       </c>
-      <c r="M61" s="38">
+      <c r="M61" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N61" s="38">
+      <c r="N61" s="36">
         <f t="shared" si="23"/>
         <v>160</v>
       </c>
-      <c r="O61" s="38">
+      <c r="O61" s="36">
         <f t="shared" si="23"/>
         <v>184</v>
       </c>
-      <c r="P61" s="38">
+      <c r="P61" s="36">
         <f t="shared" si="23"/>
         <v>185.5</v>
       </c>
-      <c r="Q61" s="38">
+      <c r="Q61" s="36">
         <f t="shared" si="23"/>
         <v>171</v>
       </c>
-      <c r="R61" s="38">
+      <c r="R61" s="36">
         <f t="shared" si="23"/>
         <v>209</v>
       </c>
-      <c r="S61" s="38">
+      <c r="S61" s="36">
         <f t="shared" si="23"/>
         <v>199</v>
       </c>
-      <c r="T61" s="38">
+      <c r="T61" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U61" s="38">
+      <c r="U61" s="36">
         <f t="shared" si="23"/>
         <v>213.5</v>
       </c>
-      <c r="V61" s="38">
+      <c r="V61" s="36">
         <f t="shared" si="23"/>
         <v>211.5</v>
       </c>
-      <c r="W61" s="38">
+      <c r="W61" s="36">
         <f t="shared" si="23"/>
         <v>198.5</v>
       </c>
-      <c r="X61" s="38">
+      <c r="X61" s="36">
         <f t="shared" si="23"/>
         <v>184</v>
       </c>
-      <c r="Y61" s="38">
+      <c r="Y61" s="36">
         <f t="shared" si="23"/>
         <v>184</v>
       </c>
-      <c r="Z61" s="38">
+      <c r="Z61" s="36">
         <f t="shared" si="23"/>
         <v>185.5</v>
       </c>
-      <c r="AA61" s="38">
+      <c r="AA61" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AB61" s="38">
+      <c r="AB61" s="36">
         <f t="shared" si="23"/>
         <v>221.5</v>
       </c>
-      <c r="AC61" s="38">
+      <c r="AC61" s="36">
         <f t="shared" si="23"/>
         <v>219</v>
       </c>
-      <c r="AD61" s="38">
+      <c r="AD61" s="36">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AE61" s="59">
+      <c r="AE61" s="57">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AF61" s="94"/>
-      <c r="AG61" s="94"/>
-      <c r="AH61" s="94"/>
-      <c r="AI61" s="82"/>
-      <c r="AJ61" s="95"/>
-      <c r="AK61" s="81"/>
-    </row>
-    <row r="62" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AF61" s="72"/>
+      <c r="AG61" s="72"/>
+      <c r="AH61" s="72"/>
+      <c r="AI61" s="69"/>
+    </row>
+    <row r="62" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8814,17 +8576,13 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="8"/>
-      <c r="AE62" s="51"/>
-      <c r="AF62" s="84"/>
-      <c r="AG62" s="84"/>
-      <c r="AH62" s="84"/>
-      <c r="AI62" s="84"/>
-      <c r="AJ62" s="81"/>
-      <c r="AK62" s="81"/>
-    </row>
-    <row r="63" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
-        <v>51</v>
+      <c r="AE62" s="49"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+    </row>
+    <row r="63" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="B63" s="8">
         <v>20000</v>
@@ -8913,19 +8671,15 @@
       <c r="AD63" s="8">
         <v>6400</v>
       </c>
-      <c r="AE63" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="84"/>
-      <c r="AG63" s="84"/>
-      <c r="AH63" s="84"/>
-      <c r="AI63" s="84"/>
-      <c r="AJ63" s="81"/>
-      <c r="AK63" s="81"/>
-    </row>
-    <row r="64" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AE63" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+    </row>
+    <row r="64" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64" s="8">
         <v>17925</v>
@@ -9014,19 +8768,15 @@
       <c r="AD64" s="8">
         <v>14525</v>
       </c>
-      <c r="AE64" s="51">
+      <c r="AE64" s="49">
         <v>9825</v>
       </c>
-      <c r="AF64" s="84"/>
-      <c r="AG64" s="84"/>
-      <c r="AH64" s="84"/>
-      <c r="AI64" s="84"/>
-      <c r="AJ64" s="81"/>
-      <c r="AK64" s="81"/>
-    </row>
-    <row r="65" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="75" t="s">
-        <v>53</v>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+    </row>
+    <row r="65" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="B65" s="8">
         <v>60</v>
@@ -9115,19 +8865,15 @@
       <c r="AD65" s="8">
         <v>102</v>
       </c>
-      <c r="AE65" s="51">
+      <c r="AE65" s="49">
         <v>38</v>
       </c>
-      <c r="AF65" s="84"/>
-      <c r="AG65" s="84"/>
-      <c r="AH65" s="84"/>
-      <c r="AI65" s="84"/>
-      <c r="AJ65" s="81"/>
-      <c r="AK65" s="81"/>
-    </row>
-    <row r="66" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="75" t="s">
-        <v>73</v>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+    </row>
+    <row r="66" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="B66" s="15">
         <f t="shared" ref="B66:W66" si="24">+B65*100/B64</f>
@@ -9244,18 +8990,16 @@
         <f t="shared" si="25"/>
         <v>0.70223752151462993</v>
       </c>
-      <c r="AE66" s="53">
+      <c r="AE66" s="51">
         <f t="shared" si="25"/>
         <v>0.38676844783715014</v>
       </c>
-      <c r="AF66" s="87"/>
-      <c r="AG66" s="87"/>
-      <c r="AH66" s="87"/>
-      <c r="AI66" s="87"/>
-      <c r="AJ66" s="81"/>
-      <c r="AK66" s="81"/>
-    </row>
-    <row r="67" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="16"/>
+      <c r="AI66" s="16"/>
+    </row>
+    <row r="67" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -9286,17 +9030,13 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
       <c r="AD67" s="8"/>
-      <c r="AE67" s="51"/>
-      <c r="AF67" s="84"/>
-      <c r="AG67" s="84"/>
-      <c r="AH67" s="84"/>
-      <c r="AI67" s="84"/>
-      <c r="AJ67" s="81"/>
-      <c r="AK67" s="81"/>
-    </row>
-    <row r="68" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="99" t="s">
-        <v>55</v>
+      <c r="AE67" s="49"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+    </row>
+    <row r="68" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="75" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="8">
         <v>0</v>
@@ -9385,17 +9125,13 @@
       <c r="AD68" s="8">
         <v>91280</v>
       </c>
-      <c r="AE68" s="51">
+      <c r="AE68" s="49">
         <v>80907</v>
       </c>
-      <c r="AF68" s="84"/>
-      <c r="AG68" s="84"/>
-      <c r="AH68" s="84"/>
-      <c r="AI68" s="84"/>
-      <c r="AJ68" s="81"/>
-      <c r="AK68" s="81"/>
-    </row>
-    <row r="69" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+    </row>
+    <row r="69" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -9426,17 +9162,13 @@
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
       <c r="AD69" s="8"/>
-      <c r="AE69" s="51"/>
-      <c r="AF69" s="84"/>
-      <c r="AG69" s="84"/>
-      <c r="AH69" s="84"/>
-      <c r="AI69" s="84"/>
-      <c r="AJ69" s="81"/>
-      <c r="AK69" s="81"/>
-    </row>
-    <row r="70" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AE69" s="49"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+    </row>
+    <row r="70" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -9467,217 +9199,209 @@
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
       <c r="AD70" s="8"/>
-      <c r="AE70" s="51"/>
-      <c r="AF70" s="84"/>
-      <c r="AG70" s="84"/>
-      <c r="AH70" s="84"/>
-      <c r="AI70" s="84"/>
-      <c r="AJ70" s="81"/>
-      <c r="AK70" s="81"/>
-    </row>
-    <row r="71" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="41">
+      <c r="AE70" s="49"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+    </row>
+    <row r="71" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="39">
         <v>1</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="39">
         <v>1</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="39">
         <v>1</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="39">
         <v>1</v>
       </c>
-      <c r="F71" s="41">
-        <v>0</v>
-      </c>
-      <c r="G71" s="41">
+      <c r="F71" s="39">
+        <v>0</v>
+      </c>
+      <c r="G71" s="39">
         <v>0.2</v>
       </c>
-      <c r="H71" s="41">
+      <c r="H71" s="39">
         <v>0.2</v>
       </c>
-      <c r="I71" s="41">
+      <c r="I71" s="39">
         <v>0.2</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="39">
         <v>0.2</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K71" s="39">
         <v>0.2</v>
       </c>
-      <c r="L71" s="41">
+      <c r="L71" s="39">
         <v>0.2</v>
       </c>
-      <c r="M71" s="41">
+      <c r="M71" s="39">
         <v>0.2</v>
       </c>
-      <c r="N71" s="41">
+      <c r="N71" s="39">
         <v>0.5</v>
       </c>
-      <c r="O71" s="41">
+      <c r="O71" s="39">
         <v>1</v>
       </c>
-      <c r="P71" s="41">
+      <c r="P71" s="39">
         <v>1</v>
       </c>
-      <c r="Q71" s="41">
+      <c r="Q71" s="39">
         <v>1</v>
       </c>
-      <c r="R71" s="41">
+      <c r="R71" s="39">
         <v>1</v>
       </c>
-      <c r="S71" s="41">
+      <c r="S71" s="39">
         <v>1</v>
       </c>
-      <c r="T71" s="41">
-        <v>0</v>
-      </c>
-      <c r="U71" s="41">
+      <c r="T71" s="39">
+        <v>0</v>
+      </c>
+      <c r="U71" s="39">
         <v>1</v>
       </c>
-      <c r="V71" s="41">
+      <c r="V71" s="39">
         <v>1</v>
       </c>
-      <c r="W71" s="41">
+      <c r="W71" s="39">
         <v>1</v>
       </c>
-      <c r="X71" s="41">
+      <c r="X71" s="39">
         <v>1</v>
       </c>
-      <c r="Y71" s="41">
+      <c r="Y71" s="39">
         <v>1.4</v>
       </c>
-      <c r="Z71" s="41">
+      <c r="Z71" s="39">
         <v>1</v>
       </c>
-      <c r="AA71" s="41">
+      <c r="AA71" s="39">
         <v>1</v>
       </c>
-      <c r="AB71" s="41">
+      <c r="AB71" s="39">
         <v>0.3</v>
       </c>
-      <c r="AC71" s="41">
+      <c r="AC71" s="39">
         <v>0.7</v>
       </c>
-      <c r="AD71" s="41">
+      <c r="AD71" s="39">
         <v>2.1</v>
       </c>
-      <c r="AE71" s="60">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="96"/>
-      <c r="AG71" s="96"/>
-      <c r="AH71" s="96"/>
-      <c r="AI71" s="96"/>
-      <c r="AJ71" s="81"/>
-      <c r="AK71" s="81"/>
-    </row>
-    <row r="72" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="41">
+      <c r="AE71" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="40"/>
+      <c r="AG71" s="40"/>
+      <c r="AH71" s="40"/>
+      <c r="AI71" s="40"/>
+    </row>
+    <row r="72" spans="1:35" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="39">
         <v>0.4</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="39">
         <v>0.4</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="39">
         <v>0.4</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="39">
         <v>0.4</v>
       </c>
-      <c r="F72" s="41">
-        <v>0</v>
-      </c>
-      <c r="G72" s="41">
+      <c r="F72" s="39">
+        <v>0</v>
+      </c>
+      <c r="G72" s="39">
         <v>0.4</v>
       </c>
-      <c r="H72" s="41">
+      <c r="H72" s="39">
         <v>0.4</v>
       </c>
-      <c r="I72" s="41">
+      <c r="I72" s="39">
         <v>0.4</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="39">
         <v>0.4</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K72" s="39">
         <v>0.4</v>
       </c>
-      <c r="L72" s="41">
+      <c r="L72" s="39">
         <v>0.4</v>
       </c>
-      <c r="M72" s="41">
+      <c r="M72" s="39">
         <v>0.4</v>
       </c>
-      <c r="N72" s="41">
+      <c r="N72" s="39">
         <v>1</v>
       </c>
-      <c r="O72" s="41">
+      <c r="O72" s="39">
         <v>0.4</v>
       </c>
-      <c r="P72" s="41">
+      <c r="P72" s="39">
         <v>0.4</v>
       </c>
-      <c r="Q72" s="41">
+      <c r="Q72" s="39">
         <v>0.4</v>
       </c>
-      <c r="R72" s="41">
+      <c r="R72" s="39">
         <v>0.4</v>
       </c>
-      <c r="S72" s="41">
+      <c r="S72" s="39">
         <v>0.6</v>
       </c>
-      <c r="T72" s="41">
-        <v>0</v>
-      </c>
-      <c r="U72" s="41">
+      <c r="T72" s="39">
+        <v>0</v>
+      </c>
+      <c r="U72" s="39">
         <v>0.4</v>
       </c>
-      <c r="V72" s="41">
+      <c r="V72" s="39">
         <v>0.4</v>
       </c>
-      <c r="W72" s="41">
+      <c r="W72" s="39">
         <v>0.4</v>
       </c>
-      <c r="X72" s="41">
+      <c r="X72" s="39">
         <v>0.4</v>
       </c>
-      <c r="Y72" s="41">
+      <c r="Y72" s="39">
         <v>0.4</v>
       </c>
-      <c r="Z72" s="41">
+      <c r="Z72" s="39">
         <v>0.4</v>
       </c>
-      <c r="AA72" s="41">
+      <c r="AA72" s="39">
         <v>0.4</v>
       </c>
-      <c r="AB72" s="41">
+      <c r="AB72" s="39">
         <v>0.8</v>
       </c>
-      <c r="AC72" s="41">
+      <c r="AC72" s="39">
         <v>2.4</v>
       </c>
-      <c r="AD72" s="41">
+      <c r="AD72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AE72" s="60">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="96"/>
-      <c r="AG72" s="96"/>
-      <c r="AH72" s="96"/>
-      <c r="AI72" s="96"/>
-      <c r="AJ72" s="81"/>
-      <c r="AK72" s="81"/>
-    </row>
-    <row r="73" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AE72" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="40"/>
+      <c r="AG72" s="40"/>
+      <c r="AH72" s="40"/>
+      <c r="AI72" s="40"/>
+    </row>
+    <row r="73" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="34"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9708,17 +9432,13 @@
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
       <c r="AD73" s="8"/>
-      <c r="AE73" s="51"/>
-      <c r="AF73" s="84"/>
-      <c r="AG73" s="84"/>
-      <c r="AH73" s="84"/>
-      <c r="AI73" s="84"/>
-      <c r="AJ73" s="81"/>
-      <c r="AK73" s="81"/>
-    </row>
-    <row r="74" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE73" s="49"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+    </row>
+    <row r="74" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74" s="8">
         <v>0</v>
@@ -9807,19 +9527,15 @@
       <c r="AD74" s="8">
         <v>5200</v>
       </c>
-      <c r="AE74" s="51">
+      <c r="AE74" s="49">
         <v>5200</v>
       </c>
-      <c r="AF74" s="84"/>
-      <c r="AG74" s="84"/>
-      <c r="AH74" s="84"/>
-      <c r="AI74" s="84"/>
-      <c r="AJ74" s="81"/>
-      <c r="AK74" s="81"/>
-    </row>
-    <row r="75" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+    </row>
+    <row r="75" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B75" s="8">
         <v>30</v>
@@ -9908,19 +9624,15 @@
       <c r="AD75" s="8">
         <v>25</v>
       </c>
-      <c r="AE75" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="84"/>
-      <c r="AG75" s="84"/>
-      <c r="AH75" s="84"/>
-      <c r="AI75" s="84"/>
-      <c r="AJ75" s="81"/>
-      <c r="AK75" s="81"/>
-    </row>
-    <row r="76" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AE75" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+    </row>
+    <row r="76" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B76" s="8">
         <v>145</v>
@@ -10009,19 +9721,15 @@
       <c r="AD76" s="8">
         <v>125</v>
       </c>
-      <c r="AE76" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="84"/>
-      <c r="AG76" s="84"/>
-      <c r="AH76" s="84"/>
-      <c r="AI76" s="84"/>
-      <c r="AJ76" s="81"/>
-      <c r="AK76" s="81"/>
-    </row>
-    <row r="77" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AE76" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+    </row>
+    <row r="77" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B77" s="8">
         <v>73</v>
@@ -10110,19 +9818,15 @@
       <c r="AD77" s="8">
         <v>62</v>
       </c>
-      <c r="AE77" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="84"/>
-      <c r="AG77" s="84"/>
-      <c r="AH77" s="84"/>
-      <c r="AI77" s="84"/>
-      <c r="AJ77" s="81"/>
-      <c r="AK77" s="81"/>
-    </row>
-    <row r="78" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AE77" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="9"/>
+    </row>
+    <row r="78" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B78" s="8">
         <v>235</v>
@@ -10211,72 +9915,44 @@
       <c r="AD78" s="8">
         <v>270</v>
       </c>
-      <c r="AE78" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="84"/>
-      <c r="AG78" s="84"/>
-      <c r="AH78" s="84"/>
-      <c r="AI78" s="84"/>
-      <c r="AJ78" s="81"/>
-      <c r="AK78" s="81"/>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A79" s="43"/>
-      <c r="AF79" s="84"/>
-      <c r="AG79" s="84"/>
-      <c r="AH79" s="81"/>
-      <c r="AI79" s="81"/>
-      <c r="AJ79" s="81"/>
-      <c r="AK79" s="81"/>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A80" s="43"/>
-      <c r="AF80" s="84"/>
-      <c r="AG80" s="84"/>
-      <c r="AH80" s="81"/>
-      <c r="AI80" s="81"/>
-      <c r="AJ80" s="81"/>
-      <c r="AK80" s="81"/>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A81" s="43"/>
-      <c r="AF81" s="84"/>
-      <c r="AG81" s="84"/>
-      <c r="AH81" s="81"/>
-      <c r="AI81" s="81"/>
-      <c r="AJ81" s="81"/>
-      <c r="AK81" s="81"/>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A82" s="43"/>
-      <c r="AF82" s="84"/>
-      <c r="AG82" s="84"/>
-      <c r="AH82" s="81"/>
-      <c r="AI82" s="81"/>
-      <c r="AJ82" s="81"/>
-      <c r="AK82" s="81"/>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A85" s="43"/>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
+      <c r="AE78" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="9"/>
+      <c r="AI78" s="9"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A79" s="41"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A80" s="41"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="41"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="41"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="41"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="41"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="41"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="42"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="42"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="42"/>
     </row>
     <row r="107" spans="37:37" x14ac:dyDescent="0.3">
-      <c r="AK107" s="45"/>
+      <c r="AK107" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10289,9 +9965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B35" sqref="B35"/>
+      <selection pane="topRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10450,7 +10126,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -10562,8 +10238,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
+      <c r="A4" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -10579,7 +10255,7 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="44">
         <v>0.52083333333333337</v>
       </c>
       <c r="I4" s="8"/>
@@ -10590,7 +10266,7 @@
       <c r="N4" s="8">
         <v>0</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="44">
         <v>0.4375</v>
       </c>
       <c r="P4" s="8"/>
@@ -10622,11 +10298,11 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
+      <c r="A5" s="23" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="46">
+      <c r="C5" s="44">
         <v>0.29166666666666669</v>
       </c>
       <c r="D5" s="8">
@@ -10647,7 +10323,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="46">
+      <c r="N5" s="44">
         <v>0.33333333333333331</v>
       </c>
       <c r="O5" s="8"/>
@@ -10655,7 +10331,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="46">
+      <c r="T5" s="44">
         <v>0.33333333333333331</v>
       </c>
       <c r="U5" s="8"/>
@@ -10683,7 +10359,7 @@
     </row>
     <row r="6" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
         <v>55</v>
@@ -10793,7 +10469,7 @@
     </row>
     <row r="7" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
         <v>199</v>
@@ -10893,7 +10569,7 @@
         <v>282</v>
       </c>
       <c r="AI7" s="9"/>
-      <c r="AJ7" s="49">
+      <c r="AJ7" s="47">
         <v>95043</v>
       </c>
       <c r="AK7">
@@ -10903,7 +10579,7 @@
     </row>
     <row r="8" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -11013,7 +10689,7 @@
     </row>
     <row r="9" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" ref="B9:C9" si="1">+B7/B3</f>
@@ -11153,7 +10829,7 @@
     </row>
     <row r="10" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8">
         <v>4217</v>
@@ -11265,7 +10941,7 @@
     </row>
     <row r="11" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="15">
         <f t="shared" ref="B11:D11" si="3">+B3/(1440-B6)*60</f>
@@ -11406,8 +11082,8 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
-        <v>10</v>
+      <c r="A12" s="63" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="18">
         <v>51.25</v>
@@ -11492,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE12" s="18">
         <v>0</v>
@@ -11518,7 +11194,7 @@
     </row>
     <row r="13" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <v>55</v>
@@ -11630,7 +11306,7 @@
     </row>
     <row r="14" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
@@ -11742,7 +11418,7 @@
     </row>
     <row r="15" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -11868,7 +11544,7 @@
     </row>
     <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8">
         <v>22407</v>
@@ -11980,7 +11656,7 @@
     </row>
     <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>560</v>
@@ -12092,7 +11768,7 @@
     </row>
     <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8">
         <v>190</v>
@@ -12204,7 +11880,7 @@
     </row>
     <row r="20" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
@@ -12316,7 +11992,7 @@
     </row>
     <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>46</v>
@@ -12428,7 +12104,7 @@
     </row>
     <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8">
         <v>322</v>
@@ -12584,7 +12260,7 @@
     </row>
     <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8">
         <v>102890</v>
@@ -12695,8 +12371,8 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>21</v>
+      <c r="A25" s="73" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="8">
         <v>50336</v>
@@ -12807,8 +12483,8 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>22</v>
+      <c r="A26" s="73" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="24">
         <f t="shared" ref="B26:C26" si="5">+B27-B25</f>
@@ -12947,8 +12623,8 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>23</v>
+      <c r="A27" s="73" t="s">
+        <v>22</v>
       </c>
       <c r="B27" s="25">
         <v>92423</v>
@@ -13060,7 +12736,7 @@
     </row>
     <row r="28" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="27">
         <f t="shared" ref="B28:C28" si="18">(+B25/B3)*100</f>
@@ -13239,8 +12915,8 @@
       </c>
     </row>
     <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
-        <v>25</v>
+      <c r="A30" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="8">
         <v>7098</v>
@@ -13349,8 +13025,8 @@
       </c>
     </row>
     <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
-        <v>26</v>
+      <c r="A31" s="73" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="15">
         <f t="shared" ref="B31:C31" si="31">+(B30/B3)*1000</f>
@@ -13530,7 +13206,7 @@
     </row>
     <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="8">
         <v>179</v>
@@ -13636,7 +13312,7 @@
     </row>
     <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="8">
         <v>244</v>
@@ -13746,7 +13422,7 @@
     </row>
     <row r="35" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -13832,7 +13508,7 @@
     </row>
     <row r="37" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8">
         <v>35</v>
@@ -13983,8 +13659,8 @@
       </c>
     </row>
     <row r="39" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
-        <v>31</v>
+      <c r="A39" s="74" t="s">
+        <v>30</v>
       </c>
       <c r="B39" s="8">
         <v>60323</v>
@@ -14093,8 +13769,8 @@
       </c>
     </row>
     <row r="40" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>32</v>
+      <c r="A40" s="73" t="s">
+        <v>31</v>
       </c>
       <c r="B40" s="8">
         <v>127.5</v>
@@ -14203,8 +13879,8 @@
       </c>
     </row>
     <row r="41" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>33</v>
+      <c r="A41" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="8">
         <v>214</v>
@@ -14313,8 +13989,8 @@
       </c>
     </row>
     <row r="42" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>34</v>
+      <c r="A42" s="73" t="s">
+        <v>70</v>
       </c>
       <c r="B42" s="15">
         <f t="shared" ref="B42:AH42" si="33">+B41*100/B39</f>
@@ -14494,8 +14170,8 @@
       </c>
     </row>
     <row r="44" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>35</v>
+      <c r="A44" s="74" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="8">
         <v>0</v>
@@ -14605,7 +14281,7 @@
     </row>
     <row r="45" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="8">
         <v>28766</v>
@@ -14714,7 +14390,7 @@
     </row>
     <row r="46" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="8">
         <v>30617</v>
@@ -14823,8 +14499,8 @@
       </c>
     </row>
     <row r="47" spans="1:37" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>38</v>
+      <c r="A47" s="73" t="s">
+        <v>36</v>
       </c>
       <c r="B47" s="31">
         <f t="shared" ref="B47:AH47" si="34">SUM(B44:B46)</f>
@@ -14965,8 +14641,8 @@
       </c>
     </row>
     <row r="48" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>39</v>
+      <c r="A48" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="B48" s="8">
         <v>30</v>
@@ -15115,8 +14791,8 @@
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A50" s="78" t="s">
-        <v>40</v>
+      <c r="A50" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -15158,8 +14834,8 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A51" s="78" t="s">
-        <v>41</v>
+      <c r="A51" s="63" t="s">
+        <v>39</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -15205,8 +14881,8 @@
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A52" s="78" t="s">
-        <v>42</v>
+      <c r="A52" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -15248,8 +14924,8 @@
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A53" s="78" t="s">
-        <v>43</v>
+      <c r="A53" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -15328,8 +15004,8 @@
       </c>
     </row>
     <row r="55" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>44</v>
+      <c r="A55" s="75" t="s">
+        <v>42</v>
       </c>
       <c r="B55" s="8">
         <v>61178</v>
@@ -15437,8 +15113,8 @@
       </c>
     </row>
     <row r="56" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
-        <v>45</v>
+      <c r="A56" s="76" t="s">
+        <v>43</v>
       </c>
       <c r="B56" s="8">
         <v>77</v>
@@ -15547,7 +15223,7 @@
     </row>
     <row r="57" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -15589,8 +15265,8 @@
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
-        <v>47</v>
+      <c r="A58" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="B58" s="8">
         <v>0</v>
@@ -15698,8 +15374,8 @@
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
-        <v>48</v>
+      <c r="A59" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="B59" s="8">
         <v>0</v>
@@ -15807,8 +15483,8 @@
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
-        <v>49</v>
+      <c r="A60" s="66" t="s">
+        <v>47</v>
       </c>
       <c r="B60" s="8">
         <v>0</v>
@@ -15917,141 +15593,141 @@
     </row>
     <row r="61" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="38">
+        <v>48</v>
+      </c>
+      <c r="B61" s="36">
         <f t="shared" ref="B61:AH61" si="35">SUM(B58:B60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="36">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="36">
         <f t="shared" si="35"/>
         <v>201.5</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="36">
         <f t="shared" si="35"/>
         <v>140</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="36">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="36">
         <f t="shared" si="35"/>
         <v>55</v>
       </c>
-      <c r="H61" s="38">
+      <c r="H61" s="36">
         <f t="shared" si="35"/>
         <v>53.5</v>
       </c>
-      <c r="I61" s="38">
+      <c r="I61" s="36">
         <f t="shared" si="35"/>
         <v>54.5</v>
       </c>
-      <c r="J61" s="38">
+      <c r="J61" s="36">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="K61" s="38">
+      <c r="K61" s="36">
         <f t="shared" si="35"/>
         <v>34.5</v>
       </c>
-      <c r="L61" s="38">
+      <c r="L61" s="36">
         <f t="shared" si="35"/>
         <v>62</v>
       </c>
-      <c r="M61" s="38">
+      <c r="M61" s="36">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N61" s="38">
+      <c r="N61" s="36">
         <f t="shared" si="35"/>
         <v>71.5</v>
       </c>
-      <c r="O61" s="38">
+      <c r="O61" s="36">
         <f t="shared" si="35"/>
         <v>37.5</v>
       </c>
-      <c r="P61" s="38">
+      <c r="P61" s="36">
         <f t="shared" si="35"/>
         <v>66.5</v>
       </c>
-      <c r="Q61" s="38">
+      <c r="Q61" s="36">
         <f t="shared" si="35"/>
         <v>83</v>
       </c>
-      <c r="R61" s="38">
+      <c r="R61" s="36">
         <f t="shared" si="35"/>
         <v>60.5</v>
       </c>
-      <c r="S61" s="38">
+      <c r="S61" s="36">
         <f t="shared" si="35"/>
         <v>35</v>
       </c>
-      <c r="T61" s="38">
+      <c r="T61" s="36">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="U61" s="38">
+      <c r="U61" s="36">
         <f t="shared" si="35"/>
         <v>39.5</v>
       </c>
-      <c r="V61" s="38">
+      <c r="V61" s="36">
         <f t="shared" si="35"/>
         <v>33</v>
       </c>
-      <c r="W61" s="38">
+      <c r="W61" s="36">
         <f t="shared" si="35"/>
         <v>44</v>
       </c>
-      <c r="X61" s="38">
+      <c r="X61" s="36">
         <f t="shared" si="35"/>
         <v>57.5</v>
       </c>
-      <c r="Y61" s="38">
+      <c r="Y61" s="36">
         <f t="shared" si="35"/>
         <v>75.5</v>
       </c>
-      <c r="Z61" s="38">
+      <c r="Z61" s="36">
         <f t="shared" si="35"/>
         <v>80.5</v>
       </c>
-      <c r="AA61" s="38">
+      <c r="AA61" s="36">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AB61" s="38">
+      <c r="AB61" s="36">
         <f t="shared" si="35"/>
         <v>98.5</v>
       </c>
-      <c r="AC61" s="38">
+      <c r="AC61" s="36">
         <f t="shared" si="35"/>
         <v>107.5</v>
       </c>
-      <c r="AD61" s="38">
+      <c r="AD61" s="36">
         <f t="shared" si="35"/>
         <v>104.5</v>
       </c>
-      <c r="AE61" s="38">
+      <c r="AE61" s="36">
         <f t="shared" si="35"/>
         <v>88</v>
       </c>
-      <c r="AF61" s="38">
+      <c r="AF61" s="36">
         <f t="shared" si="35"/>
         <v>88.5</v>
       </c>
-      <c r="AG61" s="38">
+      <c r="AG61" s="36">
         <f t="shared" si="35"/>
         <v>88.5</v>
       </c>
-      <c r="AH61" s="38">
+      <c r="AH61" s="36">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AI61" s="39"/>
+      <c r="AI61" s="37"/>
       <c r="AK61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16099,8 +15775,8 @@
       </c>
     </row>
     <row r="63" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
-        <v>51</v>
+      <c r="A63" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="B63" s="8">
         <v>6400</v>
@@ -16204,8 +15880,8 @@
       </c>
     </row>
     <row r="64" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="75" t="s">
-        <v>52</v>
+      <c r="A64" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="B64" s="8">
         <v>14525</v>
@@ -16313,8 +15989,8 @@
       </c>
     </row>
     <row r="65" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="75" t="s">
-        <v>53</v>
+      <c r="A65" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="B65" s="8">
         <v>102</v>
@@ -16422,8 +16098,8 @@
       </c>
     </row>
     <row r="66" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="75" t="s">
-        <v>54</v>
+      <c r="A66" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="B66" s="15">
         <f t="shared" ref="B66:AH66" si="36">+B65*100/B64</f>
@@ -16601,8 +16277,8 @@
       </c>
     </row>
     <row r="68" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>55</v>
+      <c r="A68" s="75" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="8">
         <v>91280</v>
@@ -16752,7 +16428,7 @@
     </row>
     <row r="70" spans="1:37" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -16794,218 +16470,218 @@
       </c>
     </row>
     <row r="71" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="41">
+      <c r="A71" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="39">
         <v>2.1</v>
       </c>
-      <c r="C71" s="41">
-        <v>0</v>
-      </c>
-      <c r="D71" s="41">
-        <v>0</v>
-      </c>
-      <c r="E71" s="41">
-        <v>0</v>
-      </c>
-      <c r="F71" s="41">
-        <v>0</v>
-      </c>
-      <c r="G71" s="41">
-        <v>0</v>
-      </c>
-      <c r="H71" s="41">
+      <c r="C71" s="39">
+        <v>0</v>
+      </c>
+      <c r="D71" s="39">
+        <v>0</v>
+      </c>
+      <c r="E71" s="39">
+        <v>0</v>
+      </c>
+      <c r="F71" s="39">
+        <v>0</v>
+      </c>
+      <c r="G71" s="39">
+        <v>0</v>
+      </c>
+      <c r="H71" s="39">
         <v>1.8</v>
       </c>
-      <c r="I71" s="41">
+      <c r="I71" s="39">
         <v>1.8</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="39">
         <v>1.8</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K71" s="39">
         <v>1.7</v>
       </c>
-      <c r="L71" s="41">
+      <c r="L71" s="39">
         <v>1.8</v>
       </c>
-      <c r="M71" s="41">
-        <v>0</v>
-      </c>
-      <c r="N71" s="41">
+      <c r="M71" s="39">
+        <v>0</v>
+      </c>
+      <c r="N71" s="39">
         <v>2</v>
       </c>
-      <c r="O71" s="41">
+      <c r="O71" s="39">
         <v>2</v>
       </c>
-      <c r="P71" s="41">
+      <c r="P71" s="39">
         <v>2.1</v>
       </c>
-      <c r="Q71" s="41">
+      <c r="Q71" s="39">
         <v>2.1</v>
       </c>
-      <c r="R71" s="41">
+      <c r="R71" s="39">
         <v>2.1</v>
       </c>
-      <c r="S71" s="41">
+      <c r="S71" s="39">
         <v>2.1</v>
       </c>
-      <c r="T71" s="41">
-        <v>0</v>
-      </c>
-      <c r="U71" s="41">
+      <c r="T71" s="39">
+        <v>0</v>
+      </c>
+      <c r="U71" s="39">
         <v>2</v>
       </c>
-      <c r="V71" s="41">
+      <c r="V71" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W71" s="41">
+      <c r="W71" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X71" s="41">
+      <c r="X71" s="39">
         <v>2</v>
       </c>
-      <c r="Y71" s="41">
+      <c r="Y71" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z71" s="41">
+      <c r="Z71" s="39">
         <v>2.1</v>
       </c>
-      <c r="AA71" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="41">
+      <c r="AA71" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC71" s="41">
+      <c r="AC71" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD71" s="41">
+      <c r="AD71" s="39">
         <v>1.8</v>
       </c>
-      <c r="AE71" s="41">
+      <c r="AE71" s="39">
         <v>1.9</v>
       </c>
-      <c r="AF71" s="41">
+      <c r="AF71" s="39">
         <v>1.9</v>
       </c>
-      <c r="AG71" s="41">
+      <c r="AG71" s="39">
         <v>1.9</v>
       </c>
-      <c r="AH71" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="42"/>
+      <c r="AH71" s="39">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="40"/>
       <c r="AK71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="41">
+      <c r="A72" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C72" s="41">
-        <v>0</v>
-      </c>
-      <c r="D72" s="41">
-        <v>0</v>
-      </c>
-      <c r="E72" s="41">
-        <v>0</v>
-      </c>
-      <c r="F72" s="41">
-        <v>0</v>
-      </c>
-      <c r="G72" s="41">
-        <v>0</v>
-      </c>
-      <c r="H72" s="41">
+      <c r="C72" s="39">
+        <v>0</v>
+      </c>
+      <c r="D72" s="39">
+        <v>0</v>
+      </c>
+      <c r="E72" s="39">
+        <v>0</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0</v>
+      </c>
+      <c r="G72" s="39">
+        <v>0</v>
+      </c>
+      <c r="H72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I72" s="41">
+      <c r="I72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="39">
         <v>2</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K72" s="39">
         <v>2</v>
       </c>
-      <c r="L72" s="41">
+      <c r="L72" s="39">
         <v>2</v>
       </c>
-      <c r="M72" s="41">
-        <v>0</v>
-      </c>
-      <c r="N72" s="41">
+      <c r="M72" s="39">
+        <v>0</v>
+      </c>
+      <c r="N72" s="39">
         <v>1.8</v>
       </c>
-      <c r="O72" s="41">
+      <c r="O72" s="39">
         <v>1.5</v>
       </c>
-      <c r="P72" s="41">
+      <c r="P72" s="39">
         <v>1.4</v>
       </c>
-      <c r="Q72" s="41">
+      <c r="Q72" s="39">
         <v>1.5</v>
       </c>
-      <c r="R72" s="41">
+      <c r="R72" s="39">
         <v>1.5</v>
       </c>
-      <c r="S72" s="41">
+      <c r="S72" s="39">
         <v>1.5</v>
       </c>
-      <c r="T72" s="41">
-        <v>0</v>
-      </c>
-      <c r="U72" s="41">
+      <c r="T72" s="39">
+        <v>0</v>
+      </c>
+      <c r="U72" s="39">
         <v>1</v>
       </c>
-      <c r="V72" s="41">
+      <c r="V72" s="39">
         <v>1.3</v>
       </c>
-      <c r="W72" s="41">
+      <c r="W72" s="39">
         <v>1</v>
       </c>
-      <c r="X72" s="41">
+      <c r="X72" s="39">
         <v>1</v>
       </c>
-      <c r="Y72" s="41">
+      <c r="Y72" s="39">
         <v>1</v>
       </c>
-      <c r="Z72" s="41">
+      <c r="Z72" s="39">
         <v>1</v>
       </c>
-      <c r="AA72" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="41">
+      <c r="AA72" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="39">
         <v>1</v>
       </c>
-      <c r="AC72" s="41">
+      <c r="AC72" s="39">
         <v>1.2</v>
       </c>
-      <c r="AD72" s="41">
+      <c r="AD72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AE72" s="41">
+      <c r="AE72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AF72" s="41">
+      <c r="AF72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AG72" s="41">
+      <c r="AG72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH72" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="42"/>
+      <c r="AH72" s="39">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="40"/>
     </row>
     <row r="73" spans="1:37" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="34"/>
@@ -17046,7 +16722,7 @@
     </row>
     <row r="74" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74" s="8">
         <v>5200</v>
@@ -17151,7 +16827,7 @@
     </row>
     <row r="75" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B75" s="8">
         <v>25</v>
@@ -17256,7 +16932,7 @@
     </row>
     <row r="76" spans="1:37" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B76" s="8">
         <v>125</v>
@@ -17361,7 +17037,7 @@
     </row>
     <row r="77" spans="1:37" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B77" s="8">
         <v>62</v>
@@ -17466,7 +17142,7 @@
     </row>
     <row r="78" spans="1:37" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B78" s="8">
         <v>270</v>
@@ -17569,41 +17245,41 @@
       </c>
       <c r="AI78" s="9"/>
       <c r="AJ78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A79" s="43"/>
+      <c r="A79" s="41"/>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A80" s="43"/>
+      <c r="A80" s="41"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43"/>
+      <c r="A81" s="41"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="43"/>
+      <c r="A82" s="41"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
+      <c r="A83" s="41"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
+      <c r="A84" s="41"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="43"/>
+      <c r="A85" s="41"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
+      <c r="A86" s="42"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
+      <c r="A87" s="42"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
+      <c r="A88" s="42"/>
     </row>
     <row r="107" spans="37:37" x14ac:dyDescent="0.3">
-      <c r="AK107" s="45"/>
+      <c r="AK107" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17616,9 +17292,9 @@
   <dimension ref="A1:AK107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="N49" sqref="N49"/>
+      <selection pane="topRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17721,15 +17397,15 @@
       <c r="AD1" s="2">
         <v>45837</v>
       </c>
-      <c r="AE1" s="50">
+      <c r="AE1" s="48">
         <v>45838</v>
       </c>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="72"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="9"/>
     </row>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -17762,16 +17438,15 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2">
-        <v>96328</v>
-      </c>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
     </row>
     <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -17861,21 +17536,16 @@
       <c r="AD3" s="8">
         <v>0</v>
       </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3">
-        <v>96379</v>
-      </c>
-      <c r="AJ3">
-        <f>+AI3-AI2</f>
-        <v>51</v>
-      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
     </row>
     <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -17887,7 +17557,7 @@
       <c r="I4" s="8">
         <v>0</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="44">
         <v>0.41319444444444442</v>
       </c>
       <c r="K4" s="8"/>
@@ -17895,16 +17565,16 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="46">
+      <c r="P4" s="44">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="41">
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="39">
         <v>0</v>
       </c>
       <c r="X4" s="8">
@@ -17914,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
@@ -17922,21 +17592,16 @@
       <c r="AD4" s="8">
         <v>0</v>
       </c>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4">
-        <v>96418</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ71" si="0">+AI4-AI3</f>
-        <v>39</v>
-      </c>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
     </row>
     <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -17944,7 +17609,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="46">
+      <c r="H5" s="44">
         <v>0.3263888888888889</v>
       </c>
       <c r="I5" s="8">
@@ -17955,7 +17620,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="46">
+      <c r="O5" s="44">
         <v>0.33333333333333331</v>
       </c>
       <c r="P5" s="8"/>
@@ -17975,29 +17640,24 @@
         <v>0</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-      <c r="AD5" s="46">
+      <c r="AD5" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5">
-        <v>96524</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
     </row>
     <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
         <v>130</v>
@@ -18086,21 +17746,16 @@
       <c r="AD6" s="8">
         <v>0</v>
       </c>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6">
-        <v>96556</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
     </row>
     <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
         <v>121</v>
@@ -18189,21 +17844,16 @@
       <c r="AD7" s="8">
         <v>0</v>
       </c>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="49">
-        <v>96676</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="78"/>
     </row>
     <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -18290,149 +17940,139 @@
       <c r="AD8" s="8">
         <v>0</v>
       </c>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8">
-        <v>96731</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
     </row>
     <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11">
-        <f t="shared" ref="B9:V9" si="1">+B7/B3</f>
+        <f t="shared" ref="B9:V9" si="0">+B7/B3</f>
         <v>3.4770114942528738E-3</v>
       </c>
       <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4181060154854078E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9004854368932039E-3</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3088235294117647E-3</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>4.9502487562189052E-3</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8506496941060317E-3</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7980404029283868E-3</v>
+      </c>
+      <c r="I9" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142857E-3</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4257125530624622E-3</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.7926829268292682E-3</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.437125748502994E-3</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1818181818181819E-3</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.0076523813753983E-3</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5985533453887883E-3</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0588235294117649E-3</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.4601664684898929E-3</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="0"/>
+        <v>5.2612826603325412E-3</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9580838323353294E-3</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6401098901098902E-3</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2527821532393358E-3</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" ref="Z9:AC9" si="1">+Z7/Z3</f>
+        <v>4.2716158491677711E-3</v>
+      </c>
+      <c r="AA9" s="11">
         <f t="shared" si="1"/>
-        <v>2.4181060154854078E-3</v>
-      </c>
-      <c r="D9" s="11">
+        <v>3.0105129021981525E-3</v>
+      </c>
+      <c r="AB9" s="11">
         <f t="shared" si="1"/>
-        <v>2.9004854368932039E-3</v>
-      </c>
-      <c r="E9" s="11">
+        <v>2.3638968481375358E-3</v>
+      </c>
+      <c r="AC9" s="11">
         <f t="shared" si="1"/>
-        <v>3.3088235294117647E-3</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="1"/>
-        <v>4.9502487562189052E-3</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="1"/>
-        <v>8.8506496941060317E-3</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>6.7980404029283868E-3</v>
-      </c>
-      <c r="I9" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="1"/>
-        <v>1.7857142857142857E-3</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" si="1"/>
-        <v>2.4257125530624622E-3</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.7926829268292682E-3</v>
-      </c>
-      <c r="M9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.437125748502994E-3</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.1818181818181819E-3</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.0076523813753983E-3</v>
-      </c>
-      <c r="P9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.5985533453887883E-3</v>
-      </c>
-      <c r="Q9" s="11">
-        <f t="shared" si="1"/>
-        <v>2.0588235294117649E-3</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.4601664684898929E-3</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="1"/>
-        <v>5.2612826603325412E-3</v>
-      </c>
-      <c r="T9" s="11">
-        <f t="shared" si="1"/>
-        <v>2.9580838323353294E-3</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.6401098901098902E-3</v>
-      </c>
-      <c r="V9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.2527821532393358E-3</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <f t="shared" ref="Z9:AC9" si="2">+Z7/Z3</f>
-        <v>4.2716158491677711E-3</v>
-      </c>
-      <c r="AA9" s="11">
-        <f t="shared" si="2"/>
-        <v>3.0105129021981525E-3</v>
-      </c>
-      <c r="AB9" s="11">
-        <f t="shared" si="2"/>
-        <v>2.3638968481375358E-3</v>
-      </c>
-      <c r="AC9" s="11">
-        <f t="shared" si="2"/>
         <v>2.8349372263899871E-3</v>
       </c>
       <c r="AD9" s="11">
         <v>0</v>
       </c>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9">
-        <v>96787</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
     </row>
     <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8">
         <v>877</v>
@@ -18519,149 +18159,139 @@
       <c r="AD10" s="8">
         <v>0</v>
       </c>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="14">
-        <v>96824</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
     </row>
     <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" ref="B11:V11" si="2">+B3/(1440-B6)*60</f>
+        <v>1593.8931297709923</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="2"/>
+        <v>3567.2804532577902</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="2"/>
+        <v>3433.3333333333335</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>3613.2841328413283</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="2"/>
+        <v>3483.0324909747292</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="2"/>
+        <v>3386.2089552238808</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>3460.3809523809523</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="2"/>
+        <v>3550.1886792452833</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="2"/>
+        <v>3679.8736842105263</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>3604.3956043956046</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="2"/>
+        <v>3553.1914893617018</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="2"/>
+        <v>3483.3333333333335</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="2"/>
+        <v>3463.6923076923076</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="2"/>
+        <v>2304.1666666666665</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="2"/>
+        <v>3683.333333333333</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="2"/>
+        <v>3669.818181818182</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="2"/>
+        <v>3582.9787234042551</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="2"/>
+        <v>3565.8362989323841</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="2"/>
+        <v>3372.9729729729729</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="2"/>
+        <v>3370.6618705035971</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15">
+        <f t="shared" ref="Z11:AC11" si="3">+Z3/(1440-Z6)*60</f>
+        <v>1872.8275862068965</v>
+      </c>
+      <c r="AA11" s="15">
+        <f t="shared" si="3"/>
+        <v>2977.707509881423</v>
+      </c>
+      <c r="AB11" s="15">
+        <f t="shared" si="3"/>
+        <v>3534.1772151898731</v>
+      </c>
+      <c r="AC11" s="15">
+        <f t="shared" si="3"/>
+        <v>2449.748031496063</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="15">
-        <f t="shared" ref="B11:V11" si="3">+B3/(1440-B6)*60</f>
-        <v>1593.8931297709923</v>
-      </c>
-      <c r="C11" s="15">
-        <f t="shared" si="3"/>
-        <v>3567.2804532577902</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="3"/>
-        <v>3433.3333333333335</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="3"/>
-        <v>3613.2841328413283</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="3"/>
-        <v>3483.0324909747292</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="3"/>
-        <v>3386.2089552238808</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="3"/>
-        <v>3460.3809523809523</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="3"/>
-        <v>3550.1886792452833</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="3"/>
-        <v>3679.8736842105263</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="3"/>
-        <v>3604.3956043956046</v>
-      </c>
-      <c r="M11" s="15">
-        <f t="shared" si="3"/>
-        <v>3553.1914893617018</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="3"/>
-        <v>3483.3333333333335</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="3"/>
-        <v>3463.6923076923076</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="3"/>
-        <v>2304.1666666666665</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="3"/>
-        <v>3683.333333333333</v>
-      </c>
-      <c r="R11" s="15">
-        <f t="shared" si="3"/>
-        <v>3669.818181818182</v>
-      </c>
-      <c r="S11" s="15">
-        <f t="shared" si="3"/>
-        <v>3582.9787234042551</v>
-      </c>
-      <c r="T11" s="15">
-        <f t="shared" si="3"/>
-        <v>3565.8362989323841</v>
-      </c>
-      <c r="U11" s="15">
-        <f t="shared" si="3"/>
-        <v>3372.9729729729729</v>
-      </c>
-      <c r="V11" s="15">
-        <f t="shared" si="3"/>
-        <v>3370.6618705035971</v>
-      </c>
-      <c r="W11" s="15">
-        <v>0</v>
-      </c>
-      <c r="X11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="15">
-        <f t="shared" ref="Z11:AC11" si="4">+Z3/(1440-Z6)*60</f>
-        <v>1872.8275862068965</v>
-      </c>
-      <c r="AA11" s="15">
-        <f t="shared" si="4"/>
-        <v>2977.707509881423</v>
-      </c>
-      <c r="AB11" s="15">
-        <f t="shared" si="4"/>
-        <v>3534.1772151898731</v>
-      </c>
-      <c r="AC11" s="15">
-        <f t="shared" si="4"/>
-        <v>2449.748031496063</v>
-      </c>
-      <c r="AD11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11">
-        <v>96969</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
-        <v>10</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
@@ -18748,22 +18378,17 @@
       <c r="AD12" s="18">
         <v>0</v>
       </c>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="20">
-        <v>97022</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="78"/>
       <c r="AK12" s="21"/>
     </row>
     <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <v>25</v>
@@ -18852,21 +18477,16 @@
       <c r="AD13" s="8">
         <v>0</v>
       </c>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="22">
-        <v>97085</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="78"/>
     </row>
     <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
@@ -18955,21 +18575,16 @@
       <c r="AD14" s="8">
         <v>0</v>
       </c>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="22">
-        <v>97147</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="78"/>
     </row>
     <row r="15" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8">
         <v>900</v>
@@ -19058,17 +18673,12 @@
       <c r="AD15" s="8">
         <v>0</v>
       </c>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="22">
-        <v>97198</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="78"/>
     </row>
     <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -19101,21 +18711,16 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="22">
-        <v>97241</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="78"/>
     </row>
     <row r="17" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8">
         <v>18535</v>
@@ -19204,21 +18809,16 @@
       <c r="AD17" s="8">
         <v>8680</v>
       </c>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="22">
-        <v>97315</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="78"/>
     </row>
     <row r="18" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>560</v>
@@ -19307,21 +18907,16 @@
       <c r="AD18" s="8">
         <v>560</v>
       </c>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="22">
-        <v>97379</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="78"/>
     </row>
     <row r="19" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8">
         <v>124</v>
@@ -19410,21 +19005,16 @@
       <c r="AD19" s="8">
         <v>102</v>
       </c>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="22">
-        <v>97412</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="78"/>
     </row>
     <row r="20" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
@@ -19513,21 +19103,16 @@
       <c r="AD20" s="8">
         <v>2</v>
       </c>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="22">
-        <v>97468</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="78"/>
     </row>
     <row r="21" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>508</v>
@@ -19616,21 +19201,16 @@
       <c r="AD21" s="8">
         <v>491</v>
       </c>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="22">
-        <v>97586</v>
-      </c>
-      <c r="AJ21">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="78"/>
     </row>
     <row r="22" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8">
         <v>309</v>
@@ -19719,17 +19299,12 @@
       <c r="AD22" s="8">
         <v>299</v>
       </c>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="22">
-        <v>97642</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="78"/>
     </row>
     <row r="23" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -19762,19 +19337,16 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23">
-        <f>+AI23-AI22</f>
-        <v>-97642</v>
-      </c>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="78"/>
     </row>
     <row r="24" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>20</v>
+      <c r="A24" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="8">
         <v>234676</v>
@@ -19863,19 +19435,16 @@
       <c r="AD24" s="8">
         <v>53723</v>
       </c>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="78"/>
     </row>
     <row r="25" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>21</v>
+      <c r="A25" s="73" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="8">
         <v>27104</v>
@@ -19964,147 +19533,141 @@
       <c r="AD25" s="8">
         <v>17424</v>
       </c>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="78"/>
     </row>
     <row r="26" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="24">
+        <f t="shared" ref="B26:E26" si="4">+B27-B25</f>
+        <v>33003</v>
+      </c>
+      <c r="C26" s="24">
+        <f t="shared" si="4"/>
+        <v>41161</v>
+      </c>
+      <c r="D26" s="24">
+        <f t="shared" si="4"/>
+        <v>48455</v>
+      </c>
+      <c r="E26" s="24">
+        <f t="shared" si="4"/>
+        <v>45116</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" ref="F26:G26" si="5">+F27-F25</f>
+        <v>49420</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="5"/>
+        <v>29344</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" ref="H26:K26" si="6">+H27-H25</f>
+        <v>20825</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="6"/>
+        <v>17422</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="6"/>
+        <v>46576</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="6"/>
+        <v>41818</v>
+      </c>
+      <c r="L26" s="24">
+        <f t="shared" ref="L26:M26" si="7">+L27-L25</f>
+        <v>45964</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="7"/>
+        <v>44041</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" ref="N26:P26" si="8">+N27-N25</f>
+        <v>31932</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="8"/>
+        <v>42161</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="8"/>
+        <v>38177</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" ref="Q26:R26" si="9">+Q27-Q25</f>
+        <v>35941</v>
+      </c>
+      <c r="R26" s="24">
+        <f t="shared" si="9"/>
+        <v>50086</v>
+      </c>
+      <c r="S26" s="24">
+        <f t="shared" ref="S26:U26" si="10">+S27-S25</f>
+        <v>47959</v>
+      </c>
+      <c r="T26" s="24">
+        <f t="shared" si="10"/>
+        <v>48208</v>
+      </c>
+      <c r="U26" s="24">
+        <f t="shared" si="10"/>
+        <v>45272</v>
+      </c>
+      <c r="V26" s="24">
+        <f t="shared" ref="V26:X26" si="11">+V27-V25</f>
+        <v>23456</v>
+      </c>
+      <c r="W26" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="24">
+        <f t="shared" ref="Z26:AA26" si="12">+Z27-Z25</f>
+        <v>52851</v>
+      </c>
+      <c r="AA26" s="24">
+        <f t="shared" si="12"/>
+        <v>33296</v>
+      </c>
+      <c r="AB26" s="24">
+        <f t="shared" ref="AB26:AC26" si="13">+AB27-AB25</f>
+        <v>46295</v>
+      </c>
+      <c r="AC26" s="24">
+        <f t="shared" si="13"/>
+        <v>25966</v>
+      </c>
+      <c r="AD26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="78"/>
+    </row>
+    <row r="27" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
         <v>22</v>
-      </c>
-      <c r="B26" s="24">
-        <f t="shared" ref="B26:E26" si="5">+B27-B25</f>
-        <v>33003</v>
-      </c>
-      <c r="C26" s="24">
-        <f t="shared" si="5"/>
-        <v>41161</v>
-      </c>
-      <c r="D26" s="24">
-        <f t="shared" si="5"/>
-        <v>48455</v>
-      </c>
-      <c r="E26" s="24">
-        <f t="shared" si="5"/>
-        <v>45116</v>
-      </c>
-      <c r="F26" s="24">
-        <f t="shared" ref="F26:G26" si="6">+F27-F25</f>
-        <v>49420</v>
-      </c>
-      <c r="G26" s="24">
-        <f t="shared" si="6"/>
-        <v>29344</v>
-      </c>
-      <c r="H26" s="24">
-        <f t="shared" ref="H26:K26" si="7">+H27-H25</f>
-        <v>20825</v>
-      </c>
-      <c r="I26" s="24">
-        <f t="shared" si="7"/>
-        <v>17422</v>
-      </c>
-      <c r="J26" s="24">
-        <f t="shared" si="7"/>
-        <v>46576</v>
-      </c>
-      <c r="K26" s="24">
-        <f t="shared" si="7"/>
-        <v>41818</v>
-      </c>
-      <c r="L26" s="24">
-        <f t="shared" ref="L26:M26" si="8">+L27-L25</f>
-        <v>45964</v>
-      </c>
-      <c r="M26" s="24">
-        <f t="shared" si="8"/>
-        <v>44041</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" ref="N26:P26" si="9">+N27-N25</f>
-        <v>31932</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="9"/>
-        <v>42161</v>
-      </c>
-      <c r="P26" s="24">
-        <f t="shared" si="9"/>
-        <v>38177</v>
-      </c>
-      <c r="Q26" s="24">
-        <f t="shared" ref="Q26:R26" si="10">+Q27-Q25</f>
-        <v>35941</v>
-      </c>
-      <c r="R26" s="24">
-        <f t="shared" si="10"/>
-        <v>50086</v>
-      </c>
-      <c r="S26" s="24">
-        <f t="shared" ref="S26:U26" si="11">+S27-S25</f>
-        <v>47959</v>
-      </c>
-      <c r="T26" s="24">
-        <f t="shared" si="11"/>
-        <v>48208</v>
-      </c>
-      <c r="U26" s="24">
-        <f t="shared" si="11"/>
-        <v>45272</v>
-      </c>
-      <c r="V26" s="24">
-        <f t="shared" ref="V26:X26" si="12">+V27-V25</f>
-        <v>23456</v>
-      </c>
-      <c r="W26" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="24">
-        <f t="shared" ref="Z26:AA26" si="13">+Z27-Z25</f>
-        <v>52851</v>
-      </c>
-      <c r="AA26" s="24">
-        <f t="shared" si="13"/>
-        <v>33296</v>
-      </c>
-      <c r="AB26" s="24">
-        <f t="shared" ref="AB26:AC26" si="14">+AB27-AB25</f>
-        <v>46295</v>
-      </c>
-      <c r="AC26" s="24">
-        <f t="shared" si="14"/>
-        <v>25966</v>
-      </c>
-      <c r="AD26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="B27" s="25">
         <v>60107</v>
@@ -20193,101 +19756,98 @@
       <c r="AD27" s="25">
         <v>0</v>
       </c>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="78"/>
     </row>
     <row r="28" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>24</v>
+      <c r="A28" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="27">
-        <f t="shared" ref="B28:E28" si="15">(+B25/B3)*100</f>
+        <f t="shared" ref="B28:E28" si="14">(+B25/B3)*100</f>
         <v>77.885057471264361</v>
       </c>
       <c r="C28" s="27">
+        <f t="shared" si="14"/>
+        <v>65.150684931506859</v>
+      </c>
+      <c r="D28" s="27">
+        <f t="shared" si="14"/>
+        <v>59.157766990291258</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="14"/>
+        <v>53.840686274509807</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" ref="F28:G28" si="15">(+F25/F3)*100</f>
+        <v>61.455223880597011</v>
+      </c>
+      <c r="G28" s="27">
         <f t="shared" si="15"/>
-        <v>65.150684931506859</v>
-      </c>
-      <c r="D28" s="27">
-        <f t="shared" si="15"/>
-        <v>59.157766990291258</v>
-      </c>
-      <c r="E28" s="27">
-        <f t="shared" si="15"/>
-        <v>53.840686274509807</v>
-      </c>
-      <c r="F28" s="27">
-        <f t="shared" ref="F28:G28" si="16">(+F25/F3)*100</f>
-        <v>61.455223880597011</v>
-      </c>
-      <c r="G28" s="27">
+        <v>59.733070047074179</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" ref="H28:L28" si="16">(+H25/H3)*100</f>
+        <v>35.966312544723948</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
         <f t="shared" si="16"/>
-        <v>59.733070047074179</v>
-      </c>
-      <c r="H28" s="27">
-        <f t="shared" ref="H28:L28" si="17">(+H25/H3)*100</f>
-        <v>35.966312544723948</v>
-      </c>
-      <c r="I28" s="27">
-        <v>0</v>
-      </c>
-      <c r="J28" s="27">
+        <v>55.561224489795912</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="16"/>
+        <v>55.079693811000375</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="16"/>
+        <v>57.253658536585363</v>
+      </c>
+      <c r="M28" s="27">
+        <f t="shared" ref="M28:N28" si="17">(+M25/M3)*100</f>
+        <v>51.58802395209581</v>
+      </c>
+      <c r="N28" s="27">
         <f t="shared" si="17"/>
-        <v>55.561224489795912</v>
-      </c>
-      <c r="K28" s="27">
-        <f t="shared" si="17"/>
-        <v>55.079693811000375</v>
-      </c>
-      <c r="L28" s="27">
-        <f t="shared" si="17"/>
-        <v>57.253658536585363</v>
-      </c>
-      <c r="M28" s="27">
-        <f t="shared" ref="M28:N28" si="18">(+M25/M3)*100</f>
-        <v>51.58802395209581</v>
-      </c>
-      <c r="N28" s="27">
+        <v>64.84210526315789</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" ref="O28:P28" si="18">(+O25/O3)*100</f>
+        <v>58.965215294610339</v>
+      </c>
+      <c r="P28" s="27">
         <f t="shared" si="18"/>
-        <v>64.84210526315789</v>
-      </c>
-      <c r="O28" s="27">
-        <f t="shared" ref="O28:P28" si="19">(+O25/O3)*100</f>
-        <v>58.965215294610339</v>
-      </c>
-      <c r="P28" s="27">
+        <v>86.014466546112118</v>
+      </c>
+      <c r="Q28" s="27">
+        <f t="shared" ref="Q28:R28" si="19">(+Q25/Q3)*100</f>
+        <v>65.532805429864254</v>
+      </c>
+      <c r="R28" s="27">
         <f t="shared" si="19"/>
-        <v>86.014466546112118</v>
-      </c>
-      <c r="Q28" s="27">
-        <f t="shared" ref="Q28:R28" si="20">(+Q25/Q3)*100</f>
-        <v>65.532805429864254</v>
-      </c>
-      <c r="R28" s="27">
+        <v>48.310344827586206</v>
+      </c>
+      <c r="S28" s="27">
+        <f t="shared" ref="S28:U28" si="20">(+S25/S3)*100</f>
+        <v>56.890736342042757</v>
+      </c>
+      <c r="T28" s="27">
         <f t="shared" si="20"/>
-        <v>48.310344827586206</v>
-      </c>
-      <c r="S28" s="27">
-        <f t="shared" ref="S28:U28" si="21">(+S25/S3)*100</f>
-        <v>56.890736342042757</v>
-      </c>
-      <c r="T28" s="27">
-        <f t="shared" si="21"/>
         <v>49.795209580838325</v>
       </c>
       <c r="U28" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>57.545329670329672</v>
       </c>
       <c r="V28" s="27">
-        <f t="shared" ref="V28" si="22">(+V25/V3)*100</f>
+        <f t="shared" ref="V28" si="21">(+V25/V3)*100</f>
         <v>33.814847541844351</v>
       </c>
       <c r="W28" s="27">
@@ -20300,33 +19860,30 @@
         <v>0</v>
       </c>
       <c r="Z28" s="27">
-        <f t="shared" ref="Z28:AA28" si="23">(+Z25/Z3)*100</f>
+        <f t="shared" ref="Z28:AA28" si="22">(+Z25/Z3)*100</f>
         <v>66.867972700937798</v>
       </c>
       <c r="AA28" s="27">
+        <f t="shared" si="22"/>
+        <v>56.471806307741325</v>
+      </c>
+      <c r="AB28" s="27">
+        <f t="shared" ref="AB28:AC28" si="23">(+AB25/AB3)*100</f>
+        <v>45.46275071633238</v>
+      </c>
+      <c r="AC28" s="27">
         <f t="shared" si="23"/>
-        <v>56.471806307741325</v>
-      </c>
-      <c r="AB28" s="27">
-        <f t="shared" ref="AB28:AC28" si="24">(+AB25/AB3)*100</f>
-        <v>45.46275071633238</v>
-      </c>
-      <c r="AC28" s="27">
-        <f t="shared" si="24"/>
         <v>37.465527549032842</v>
       </c>
       <c r="AD28" s="27">
         <v>0</v>
       </c>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="84"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="78"/>
     </row>
     <row r="29" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -20359,19 +19916,16 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="78"/>
     </row>
     <row r="30" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>25</v>
+      <c r="A30" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="8">
         <v>6279</v>
@@ -20460,140 +20014,134 @@
       <c r="AD30" s="8">
         <v>3185</v>
       </c>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="78"/>
     </row>
     <row r="31" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>26</v>
+      <c r="A31" s="73" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="15">
-        <f t="shared" ref="B31:V31" si="25">+(B30/B3)*1000</f>
+        <f t="shared" ref="B31:V31" si="24">+(B30/B3)*1000</f>
         <v>180.43103448275863</v>
       </c>
       <c r="C31" s="15">
+        <f t="shared" si="24"/>
+        <v>84.550327575938056</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="24"/>
+        <v>88.349514563106794</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="24"/>
+        <v>88.100490196078439</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="24"/>
+        <v>89.415422885572141</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="24"/>
+        <v>107.4948429979372</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="24"/>
+        <v>67.622612429129745</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="24"/>
+        <v>91.696428571428569</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="24"/>
+        <v>82.256828037575659</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="24"/>
+        <v>74.353658536585357</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="24"/>
+        <v>87.185628742514965</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="24"/>
+        <v>84.904306220095691</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="24"/>
+        <v>92.386959225370873</v>
+      </c>
+      <c r="P31" s="15">
+        <f t="shared" si="24"/>
+        <v>128.35443037974684</v>
+      </c>
+      <c r="Q31" s="15">
+        <f t="shared" si="24"/>
+        <v>80.294117647058826</v>
+      </c>
+      <c r="R31" s="15">
+        <f t="shared" si="24"/>
+        <v>85.481569560047561</v>
+      </c>
+      <c r="S31" s="15">
+        <f t="shared" si="24"/>
+        <v>84.299287410926368</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="24"/>
+        <v>83.916167664670667</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="24"/>
+        <v>98.75</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="24"/>
+        <v>69.922010065695957</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15">
+        <f t="shared" ref="Z31:AC31" si="25">+(Z30/Z3)*1000</f>
+        <v>127.33834143467374</v>
+      </c>
+      <c r="AA31" s="15">
         <f t="shared" si="25"/>
-        <v>84.550327575938056</v>
-      </c>
-      <c r="D31" s="15">
+        <v>81.172347881490907</v>
+      </c>
+      <c r="AB31" s="15">
         <f t="shared" si="25"/>
-        <v>88.349514563106794</v>
-      </c>
-      <c r="E31" s="15">
+        <v>79.527220630372483</v>
+      </c>
+      <c r="AC31" s="15">
         <f t="shared" si="25"/>
-        <v>88.100490196078439</v>
-      </c>
-      <c r="F31" s="15">
-        <f t="shared" si="25"/>
-        <v>89.415422885572141</v>
-      </c>
-      <c r="G31" s="15">
-        <f t="shared" si="25"/>
-        <v>107.4948429979372</v>
-      </c>
-      <c r="H31" s="15">
-        <f t="shared" si="25"/>
-        <v>67.622612429129745</v>
-      </c>
-      <c r="I31" s="15">
-        <v>0</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="25"/>
-        <v>91.696428571428569</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" si="25"/>
-        <v>82.256828037575659</v>
-      </c>
-      <c r="L31" s="15">
-        <f t="shared" si="25"/>
-        <v>74.353658536585357</v>
-      </c>
-      <c r="M31" s="15">
-        <f t="shared" si="25"/>
-        <v>87.185628742514965</v>
-      </c>
-      <c r="N31" s="15">
-        <f t="shared" si="25"/>
-        <v>84.904306220095691</v>
-      </c>
-      <c r="O31" s="15">
-        <f t="shared" si="25"/>
-        <v>92.386959225370873</v>
-      </c>
-      <c r="P31" s="15">
-        <f t="shared" si="25"/>
-        <v>128.35443037974684</v>
-      </c>
-      <c r="Q31" s="15">
-        <f t="shared" si="25"/>
-        <v>80.294117647058826</v>
-      </c>
-      <c r="R31" s="15">
-        <f t="shared" si="25"/>
-        <v>85.481569560047561</v>
-      </c>
-      <c r="S31" s="15">
-        <f t="shared" si="25"/>
-        <v>84.299287410926368</v>
-      </c>
-      <c r="T31" s="15">
-        <f t="shared" si="25"/>
-        <v>83.916167664670667</v>
-      </c>
-      <c r="U31" s="15">
-        <f t="shared" si="25"/>
-        <v>98.75</v>
-      </c>
-      <c r="V31" s="15">
-        <f t="shared" si="25"/>
-        <v>69.922010065695957</v>
-      </c>
-      <c r="W31" s="15">
-        <v>0</v>
-      </c>
-      <c r="X31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="15">
-        <f t="shared" ref="Z31:AC31" si="26">+(Z30/Z3)*1000</f>
-        <v>127.33834143467374</v>
-      </c>
-      <c r="AA31" s="15">
-        <f t="shared" si="26"/>
-        <v>81.172347881490907</v>
-      </c>
-      <c r="AB31" s="15">
-        <f t="shared" si="26"/>
-        <v>79.527220630372483</v>
-      </c>
-      <c r="AC31" s="15">
-        <f t="shared" si="26"/>
         <v>77.218290166432027</v>
       </c>
       <c r="AD31" s="15">
         <v>0</v>
       </c>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="78"/>
     </row>
     <row r="32" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
@@ -20626,19 +20174,16 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="78"/>
     </row>
     <row r="33" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="8">
         <v>185</v>
@@ -20719,19 +20264,16 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="77"/>
+      <c r="AI33" s="82"/>
+      <c r="AJ33" s="78"/>
     </row>
     <row r="34" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="8">
         <v>218</v>
@@ -20812,19 +20354,16 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="77"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="78"/>
     </row>
     <row r="35" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -20855,15 +20394,12 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="77"/>
+      <c r="AI35" s="78"/>
+      <c r="AJ35" s="78"/>
     </row>
     <row r="36" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
@@ -20896,19 +20432,16 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="77"/>
+      <c r="AI36" s="82"/>
+      <c r="AJ36" s="78"/>
     </row>
     <row r="37" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>30</v>
+      <c r="A37" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="B37" s="8">
         <v>15</v>
@@ -20997,15 +20530,12 @@
       <c r="AD37" s="8">
         <v>0</v>
       </c>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="62"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="77"/>
+      <c r="AI37" s="78"/>
+      <c r="AJ37" s="78"/>
     </row>
     <row r="38" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
@@ -21038,19 +20568,16 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="77"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="78"/>
     </row>
     <row r="39" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>31</v>
+      <c r="A39" s="74" t="s">
+        <v>30</v>
       </c>
       <c r="B39" s="8">
         <v>23417</v>
@@ -21139,19 +20666,16 @@
       <c r="AD39" s="8">
         <v>42087</v>
       </c>
-      <c r="AE39" s="51"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="62"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="77"/>
+      <c r="AI39" s="77"/>
+      <c r="AJ39" s="78"/>
     </row>
     <row r="40" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>32</v>
+      <c r="A40" s="73" t="s">
+        <v>31</v>
       </c>
       <c r="B40" s="8">
         <v>93</v>
@@ -21240,19 +20764,16 @@
       <c r="AD40" s="8">
         <v>20.5</v>
       </c>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="77"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
     </row>
     <row r="41" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>33</v>
+      <c r="A41" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="8">
         <v>93</v>
@@ -21341,61 +20862,58 @@
       <c r="AD41" s="8">
         <v>161</v>
       </c>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="62"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="77"/>
+      <c r="AI41" s="78"/>
+      <c r="AJ41" s="78"/>
     </row>
     <row r="42" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>34</v>
+      <c r="A42" s="73" t="s">
+        <v>70</v>
       </c>
       <c r="B42" s="15">
-        <f t="shared" ref="B42:L42" si="27">+B41*100/B39</f>
+        <f t="shared" ref="B42:L42" si="26">+B41*100/B39</f>
         <v>0.3971473715676645</v>
       </c>
       <c r="C42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.38369739267047343</v>
       </c>
       <c r="D42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.38328553432147738</v>
       </c>
       <c r="E42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.38341758086981015</v>
       </c>
       <c r="F42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.38386134862188831</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.38398383225969435</v>
       </c>
       <c r="H42" s="15">
         <v>0</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.35600811545381467</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.35513147038777487</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.34954066771230113</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.35731213767455428</v>
       </c>
       <c r="M42" s="15">
@@ -21407,76 +20925,74 @@
         <v>0.19786960393100947</v>
       </c>
       <c r="O42" s="15">
-        <f t="shared" ref="O42:AD42" si="28">+O41*100/O39</f>
+        <f t="shared" ref="O42:AD42" si="27">+O41*100/O39</f>
         <v>0.38299640489223707</v>
       </c>
       <c r="P42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.25837122778007443</v>
       </c>
       <c r="Q42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.49973745677089937</v>
       </c>
       <c r="R42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.49547364183449116</v>
       </c>
       <c r="S42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.49874278135448041</v>
       </c>
       <c r="T42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.38327171590408032</v>
       </c>
       <c r="U42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.38323137819359482</v>
       </c>
       <c r="V42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.35503368490327497</v>
       </c>
       <c r="W42" s="15">
         <v>0</v>
       </c>
       <c r="X42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.35536602700781805</v>
       </c>
       <c r="Y42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.38177842025278919</v>
       </c>
       <c r="Z42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.34844483568075119</v>
       </c>
       <c r="AA42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.35309029454369872</v>
       </c>
       <c r="AB42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.34423956523817872</v>
       </c>
       <c r="AC42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.38431090320259087</v>
       </c>
       <c r="AD42" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.38254092712714138</v>
       </c>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="16"/>
-      <c r="AJ42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="81"/>
+      <c r="AI42" s="78"/>
+      <c r="AJ42" s="78"/>
     </row>
     <row r="43" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
@@ -21509,18 +21025,16 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="51"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="9"/>
-      <c r="AJ43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="77"/>
+      <c r="AI43" s="78"/>
+      <c r="AJ43" s="78"/>
     </row>
     <row r="44" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>35</v>
+      <c r="A44" s="74" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="8">
         <v>4995</v>
@@ -21609,19 +21123,16 @@
       <c r="AD44" s="8">
         <v>14914</v>
       </c>
-      <c r="AE44" s="51"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="9"/>
-      <c r="AJ44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="77"/>
+      <c r="AJ44" s="78"/>
     </row>
     <row r="45" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="8">
         <v>11636</v>
@@ -21710,18 +21221,16 @@
       <c r="AD45" s="8">
         <v>27564</v>
       </c>
-      <c r="AE45" s="51"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="9"/>
-      <c r="AJ45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="77"/>
+      <c r="AI45" s="78"/>
+      <c r="AJ45" s="78"/>
     </row>
     <row r="46" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="8">
         <v>12993</v>
@@ -21810,148 +21319,143 @@
       <c r="AD46" s="8">
         <v>29552</v>
       </c>
-      <c r="AE46" s="51"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="30"/>
-      <c r="AJ46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="77"/>
+      <c r="AI46" s="85"/>
+      <c r="AJ46" s="78"/>
     </row>
     <row r="47" spans="1:36" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>38</v>
+      <c r="A47" s="73" t="s">
+        <v>36</v>
       </c>
       <c r="B47" s="31">
-        <f t="shared" ref="B47:I47" si="29">SUM(B44:B46)</f>
+        <f t="shared" ref="B47:I47" si="28">SUM(B44:B46)</f>
         <v>29624</v>
       </c>
       <c r="C47" s="31">
+        <f t="shared" si="28"/>
+        <v>56698</v>
+      </c>
+      <c r="D47" s="31">
+        <f t="shared" si="28"/>
+        <v>60764</v>
+      </c>
+      <c r="E47" s="31">
+        <f t="shared" si="28"/>
+        <v>71403</v>
+      </c>
+      <c r="F47" s="31">
+        <f t="shared" si="28"/>
+        <v>67580</v>
+      </c>
+      <c r="G47" s="31">
+        <f t="shared" si="28"/>
+        <v>63870</v>
+      </c>
+      <c r="H47" s="31">
+        <f t="shared" si="28"/>
+        <v>44381</v>
+      </c>
+      <c r="I47" s="31">
+        <f t="shared" si="28"/>
+        <v>12846</v>
+      </c>
+      <c r="J47" s="31">
+        <f t="shared" ref="J47:AD47" si="29">SUM(J44:J46)</f>
+        <v>49355</v>
+      </c>
+      <c r="K47" s="31">
         <f t="shared" si="29"/>
-        <v>56698</v>
-      </c>
-      <c r="D47" s="31">
+        <v>66050</v>
+      </c>
+      <c r="L47" s="31">
         <f t="shared" si="29"/>
-        <v>60764</v>
-      </c>
-      <c r="E47" s="31">
+        <v>58014</v>
+      </c>
+      <c r="M47" s="31">
         <f t="shared" si="29"/>
-        <v>71403</v>
-      </c>
-      <c r="F47" s="31">
+        <v>55359</v>
+      </c>
+      <c r="N47" s="31">
         <f t="shared" si="29"/>
-        <v>67580</v>
-      </c>
-      <c r="G47" s="31">
+        <v>66080</v>
+      </c>
+      <c r="O47" s="31">
         <f t="shared" si="29"/>
-        <v>63870</v>
-      </c>
-      <c r="H47" s="31">
+        <v>44535</v>
+      </c>
+      <c r="P47" s="31">
         <f t="shared" si="29"/>
-        <v>44381</v>
-      </c>
-      <c r="I47" s="31">
+        <v>47564</v>
+      </c>
+      <c r="Q47" s="31">
         <f t="shared" si="29"/>
-        <v>12846</v>
-      </c>
-      <c r="J47" s="31">
-        <f t="shared" ref="J47:AD47" si="30">SUM(J44:J46)</f>
-        <v>49355</v>
-      </c>
-      <c r="K47" s="31">
-        <f t="shared" si="30"/>
-        <v>66050</v>
-      </c>
-      <c r="L47" s="31">
-        <f t="shared" si="30"/>
-        <v>58014</v>
-      </c>
-      <c r="M47" s="31">
-        <f t="shared" si="30"/>
-        <v>55359</v>
-      </c>
-      <c r="N47" s="31">
-        <f t="shared" si="30"/>
-        <v>66080</v>
-      </c>
-      <c r="O47" s="31">
-        <f t="shared" si="30"/>
-        <v>44535</v>
-      </c>
-      <c r="P47" s="31">
-        <f t="shared" si="30"/>
-        <v>47564</v>
-      </c>
-      <c r="Q47" s="31">
-        <f t="shared" si="30"/>
         <v>31435</v>
       </c>
       <c r="R47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>59911</v>
       </c>
       <c r="S47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>59063</v>
       </c>
       <c r="T47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>64437</v>
       </c>
       <c r="U47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>70263</v>
       </c>
       <c r="V47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>64270</v>
       </c>
       <c r="W47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>56220</v>
       </c>
       <c r="X47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>30876</v>
       </c>
       <c r="Y47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28550</v>
       </c>
       <c r="Z47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>42504</v>
       </c>
       <c r="AA47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>56236</v>
       </c>
       <c r="AB47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>64238</v>
       </c>
       <c r="AC47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>66607</v>
       </c>
       <c r="AD47" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>72030</v>
       </c>
-      <c r="AE47" s="58"/>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="32"/>
-      <c r="AJ47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="86"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="78"/>
     </row>
     <row r="48" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>39</v>
+      <c r="A48" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="B48" s="8">
         <v>53.5</v>
@@ -22040,14 +21544,12 @@
       <c r="AD48" s="8">
         <v>19</v>
       </c>
-      <c r="AE48" s="51"/>
-      <c r="AF48" s="62"/>
-      <c r="AG48" s="62"/>
-      <c r="AH48" s="9"/>
-      <c r="AJ48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="77"/>
+      <c r="AI48" s="78"/>
+      <c r="AJ48" s="78"/>
     </row>
     <row r="49" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
@@ -22080,18 +21582,16 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
-      <c r="AE49" s="51"/>
-      <c r="AF49" s="62"/>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="9"/>
-      <c r="AJ49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="77"/>
+      <c r="AI49" s="78"/>
+      <c r="AJ49" s="78"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
-        <v>40</v>
+      <c r="A50" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -22122,18 +21622,16 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
-      <c r="AE50" s="51"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="9"/>
-      <c r="AJ50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE50" s="49"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="77"/>
+      <c r="AI50" s="78"/>
+      <c r="AJ50" s="78"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>41</v>
+      <c r="A51" s="63" t="s">
+        <v>39</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -22170,18 +21668,16 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
-      <c r="AE51" s="51"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="9"/>
-      <c r="AJ51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE51" s="49"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="77"/>
+      <c r="AI51" s="78"/>
+      <c r="AJ51" s="78"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>42</v>
+      <c r="A52" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -22214,18 +21710,16 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
-      <c r="AE52" s="51"/>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="62"/>
-      <c r="AH52" s="9"/>
-      <c r="AJ52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="77"/>
+      <c r="AI52" s="78"/>
+      <c r="AJ52" s="78"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
-        <v>43</v>
+      <c r="A53" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -22256,10 +21750,12 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
-      <c r="AE53" s="51"/>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
-      <c r="AH53" s="9"/>
+      <c r="AE53" s="49"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="77"/>
+      <c r="AI53" s="78"/>
+      <c r="AJ53" s="78"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
@@ -22292,18 +21788,16 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="62"/>
-      <c r="AG54" s="62"/>
-      <c r="AH54" s="9"/>
-      <c r="AJ54">
-        <f>+AI54-AI52</f>
-        <v>0</v>
-      </c>
+      <c r="AE54" s="49"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="77"/>
+      <c r="AI54" s="78"/>
+      <c r="AJ54" s="78"/>
     </row>
     <row r="55" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>44</v>
+      <c r="A55" s="75" t="s">
+        <v>42</v>
       </c>
       <c r="B55" s="8">
         <v>30840</v>
@@ -22392,18 +21886,16 @@
       <c r="AD55" s="8">
         <v>49194</v>
       </c>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="62"/>
-      <c r="AH55" s="9"/>
-      <c r="AJ55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="77"/>
+      <c r="AI55" s="78"/>
+      <c r="AJ55" s="78"/>
     </row>
     <row r="56" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
-        <v>45</v>
+      <c r="A56" s="76" t="s">
+        <v>43</v>
       </c>
       <c r="B56" s="8">
         <v>27</v>
@@ -22492,18 +21984,16 @@
       <c r="AD56" s="8">
         <v>36</v>
       </c>
-      <c r="AE56" s="51"/>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="9"/>
-      <c r="AJ56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="77"/>
+      <c r="AI56" s="78"/>
+      <c r="AJ56" s="78"/>
     </row>
     <row r="57" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -22534,18 +22024,16 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
-      <c r="AE57" s="51"/>
-      <c r="AF57" s="62"/>
-      <c r="AG57" s="62"/>
-      <c r="AH57" s="9"/>
-      <c r="AJ57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="77"/>
+      <c r="AI57" s="78"/>
+      <c r="AJ57" s="78"/>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
-        <v>47</v>
+      <c r="A58" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="B58" s="8">
         <v>34.5</v>
@@ -22634,18 +22122,16 @@
       <c r="AD58" s="8">
         <v>33.5</v>
       </c>
-      <c r="AE58" s="51"/>
-      <c r="AF58" s="62"/>
-      <c r="AG58" s="62"/>
-      <c r="AH58" s="9"/>
-      <c r="AJ58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="77"/>
+      <c r="AI58" s="78"/>
+      <c r="AJ58" s="78"/>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
-        <v>48</v>
+      <c r="A59" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="B59" s="8">
         <v>0</v>
@@ -22734,18 +22220,16 @@
       <c r="AD59" s="8">
         <v>0</v>
       </c>
-      <c r="AE59" s="51"/>
-      <c r="AF59" s="62"/>
-      <c r="AG59" s="62"/>
-      <c r="AH59" s="9"/>
-      <c r="AJ59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE59" s="49"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="77"/>
+      <c r="AI59" s="78"/>
+      <c r="AJ59" s="78"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
-        <v>49</v>
+      <c r="A60" s="66" t="s">
+        <v>47</v>
       </c>
       <c r="B60" s="8">
         <v>0</v>
@@ -22834,143 +22318,139 @@
       <c r="AD60" s="8">
         <v>68</v>
       </c>
-      <c r="AE60" s="51"/>
-      <c r="AF60" s="62"/>
-      <c r="AG60" s="62"/>
-      <c r="AH60" s="9"/>
-      <c r="AJ60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE60" s="49"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="77"/>
+      <c r="AI60" s="78"/>
+      <c r="AJ60" s="78"/>
     </row>
     <row r="61" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="38">
-        <f t="shared" ref="B61:V61" si="31">SUM(B58:B60)</f>
+        <v>48</v>
+      </c>
+      <c r="B61" s="36">
+        <f t="shared" ref="B61:V61" si="30">SUM(B58:B60)</f>
         <v>34.5</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="36">
+        <f t="shared" si="30"/>
+        <v>72</v>
+      </c>
+      <c r="D61" s="36">
+        <f t="shared" si="30"/>
+        <v>81</v>
+      </c>
+      <c r="E61" s="36">
+        <f t="shared" si="30"/>
+        <v>99.5</v>
+      </c>
+      <c r="F61" s="36">
+        <f t="shared" si="30"/>
+        <v>118</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="H61" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="36">
+        <f t="shared" si="30"/>
+        <v>69.5</v>
+      </c>
+      <c r="J61" s="36">
+        <f t="shared" si="30"/>
+        <v>31.5</v>
+      </c>
+      <c r="K61" s="36">
+        <f t="shared" si="30"/>
+        <v>59.5</v>
+      </c>
+      <c r="L61" s="36">
+        <f t="shared" si="30"/>
+        <v>46.5</v>
+      </c>
+      <c r="M61" s="36">
+        <f t="shared" si="30"/>
+        <v>51.5</v>
+      </c>
+      <c r="N61" s="36">
+        <f t="shared" si="30"/>
+        <v>63.5</v>
+      </c>
+      <c r="O61" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="36">
+        <f t="shared" si="30"/>
+        <v>66</v>
+      </c>
+      <c r="Q61" s="36">
+        <f t="shared" si="30"/>
+        <v>26.5</v>
+      </c>
+      <c r="R61" s="36">
+        <f t="shared" si="30"/>
+        <v>49.5</v>
+      </c>
+      <c r="S61" s="36">
+        <f t="shared" si="30"/>
+        <v>46</v>
+      </c>
+      <c r="T61" s="36">
+        <f t="shared" si="30"/>
+        <v>53</v>
+      </c>
+      <c r="U61" s="36">
+        <f t="shared" si="30"/>
+        <v>68</v>
+      </c>
+      <c r="V61" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="36">
+        <f t="shared" ref="W61:AB61" si="31">SUM(W58:W60)</f>
+        <v>99.5</v>
+      </c>
+      <c r="X61" s="36">
         <f t="shared" si="31"/>
-        <v>72</v>
-      </c>
-      <c r="D61" s="38">
-        <f t="shared" si="31"/>
-        <v>81</v>
-      </c>
-      <c r="E61" s="38">
-        <f t="shared" si="31"/>
-        <v>99.5</v>
-      </c>
-      <c r="F61" s="38">
-        <f t="shared" si="31"/>
-        <v>118</v>
-      </c>
-      <c r="G61" s="38">
-        <f t="shared" si="31"/>
-        <v>100</v>
-      </c>
-      <c r="H61" s="38">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="38">
-        <f t="shared" si="31"/>
-        <v>69.5</v>
-      </c>
-      <c r="J61" s="38">
-        <f t="shared" si="31"/>
-        <v>31.5</v>
-      </c>
-      <c r="K61" s="38">
-        <f t="shared" si="31"/>
-        <v>59.5</v>
-      </c>
-      <c r="L61" s="38">
-        <f t="shared" si="31"/>
-        <v>46.5</v>
-      </c>
-      <c r="M61" s="38">
-        <f t="shared" si="31"/>
-        <v>51.5</v>
-      </c>
-      <c r="N61" s="38">
-        <f t="shared" si="31"/>
-        <v>63.5</v>
-      </c>
-      <c r="O61" s="38">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="38">
-        <f t="shared" si="31"/>
-        <v>66</v>
-      </c>
-      <c r="Q61" s="38">
-        <f t="shared" si="31"/>
-        <v>26.5</v>
-      </c>
-      <c r="R61" s="38">
+        <v>60</v>
+      </c>
+      <c r="Y61" s="36">
         <f t="shared" si="31"/>
         <v>49.5</v>
       </c>
-      <c r="S61" s="38">
+      <c r="Z61" s="36">
         <f t="shared" si="31"/>
-        <v>46</v>
-      </c>
-      <c r="T61" s="38">
+        <v>25.5</v>
+      </c>
+      <c r="AA61" s="36">
         <f t="shared" si="31"/>
-        <v>53</v>
-      </c>
-      <c r="U61" s="38">
+        <v>57.5</v>
+      </c>
+      <c r="AB61" s="36">
         <f t="shared" si="31"/>
-        <v>68</v>
-      </c>
-      <c r="V61" s="38">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="38">
-        <f t="shared" ref="W61:AB61" si="32">SUM(W58:W60)</f>
-        <v>99.5</v>
-      </c>
-      <c r="X61" s="38">
-        <f t="shared" si="32"/>
-        <v>60</v>
-      </c>
-      <c r="Y61" s="38">
-        <f t="shared" si="32"/>
-        <v>49.5</v>
-      </c>
-      <c r="Z61" s="38">
-        <f t="shared" si="32"/>
-        <v>25.5</v>
-      </c>
-      <c r="AA61" s="38">
-        <f t="shared" si="32"/>
-        <v>57.5</v>
-      </c>
-      <c r="AB61" s="38">
-        <f t="shared" si="32"/>
         <v>71</v>
       </c>
-      <c r="AC61" s="38">
-        <f t="shared" ref="AC61" si="33">SUM(AC58:AC60)</f>
-        <v>0</v>
-      </c>
-      <c r="AD61" s="38">
-        <f t="shared" ref="AD61" si="34">SUM(AD58:AD60)</f>
+      <c r="AC61" s="36">
+        <f t="shared" ref="AC61" si="32">SUM(AC58:AC60)</f>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="36">
+        <f t="shared" ref="AD61" si="33">SUM(AD58:AD60)</f>
         <v>101.5</v>
       </c>
-      <c r="AE61" s="59"/>
-      <c r="AF61" s="70"/>
-      <c r="AG61" s="70"/>
-      <c r="AH61" s="39"/>
-      <c r="AJ61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE61" s="57"/>
+      <c r="AF61" s="62"/>
+      <c r="AG61" s="62"/>
+      <c r="AH61" s="87"/>
+      <c r="AI61" s="78"/>
+      <c r="AJ61" s="78"/>
     </row>
     <row r="62" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
@@ -23003,18 +22483,16 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="8"/>
-      <c r="AE62" s="51"/>
-      <c r="AF62" s="62"/>
-      <c r="AG62" s="62"/>
-      <c r="AH62" s="9"/>
-      <c r="AJ62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="77"/>
+      <c r="AI62" s="78"/>
+      <c r="AJ62" s="78"/>
     </row>
     <row r="63" spans="1:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
-        <v>51</v>
+      <c r="A63" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="B63" s="8">
         <v>22000</v>
@@ -23099,18 +22577,16 @@
       <c r="AD63" s="8">
         <v>30200</v>
       </c>
-      <c r="AE63" s="51"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
-      <c r="AH63" s="9"/>
-      <c r="AJ63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="77"/>
+      <c r="AI63" s="78"/>
+      <c r="AJ63" s="78"/>
     </row>
     <row r="64" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64" s="8">
         <v>0</v>
@@ -23199,18 +22675,16 @@
       <c r="AD64" s="8">
         <v>0</v>
       </c>
-      <c r="AE64" s="51"/>
-      <c r="AF64" s="62"/>
-      <c r="AG64" s="62"/>
-      <c r="AH64" s="9"/>
-      <c r="AJ64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="77"/>
+      <c r="AI64" s="78"/>
+      <c r="AJ64" s="78"/>
     </row>
     <row r="65" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
-        <v>53</v>
+      <c r="A65" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="B65" s="8">
         <v>0</v>
@@ -23299,141 +22773,137 @@
       <c r="AD65" s="8">
         <v>0</v>
       </c>
-      <c r="AE65" s="51"/>
-      <c r="AF65" s="62"/>
-      <c r="AG65" s="62"/>
-      <c r="AH65" s="9"/>
-      <c r="AJ65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="77"/>
+      <c r="AI65" s="78"/>
+      <c r="AJ65" s="78"/>
     </row>
     <row r="66" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
-        <v>54</v>
+      <c r="A66" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="B66" s="15" t="e">
-        <f t="shared" ref="B66:AD66" si="35">+B65*100/B64</f>
+        <f t="shared" ref="B66:AD66" si="34">+B65*100/B64</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.57665903890160186</v>
       </c>
       <c r="D66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.76344086021505375</v>
       </c>
       <c r="E66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="F66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.49056603773584906</v>
       </c>
       <c r="G66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.49382716049382713</v>
       </c>
       <c r="H66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I66" s="15">
         <v>0</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.199288256227758</v>
       </c>
       <c r="K66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1.7107692307692308</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.41875000000000001</v>
       </c>
       <c r="M66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.875</v>
       </c>
       <c r="N66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.58278145695364236</v>
       </c>
       <c r="O66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.51187335092348285</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.41095890410958902</v>
       </c>
       <c r="Q66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.20591456736035049</v>
       </c>
       <c r="R66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.49238578680203043</v>
       </c>
       <c r="S66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.8125</v>
       </c>
       <c r="U66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.44354838709677419</v>
       </c>
       <c r="V66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.47169811320754718</v>
       </c>
       <c r="W66" s="15">
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.21266968325791855</v>
       </c>
       <c r="Y66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.52083333333333337</v>
       </c>
       <c r="Z66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.43867924528301888</v>
       </c>
       <c r="AA66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.47265625</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.71568627450980393</v>
       </c>
       <c r="AC66" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.42553191489361702</v>
       </c>
       <c r="AD66" s="15" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE66" s="53"/>
-      <c r="AF66" s="64"/>
-      <c r="AG66" s="64"/>
-      <c r="AH66" s="16"/>
-      <c r="AJ66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE66" s="51"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="81"/>
+      <c r="AI66" s="78"/>
+      <c r="AJ66" s="78"/>
     </row>
     <row r="67" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
@@ -23466,18 +22936,16 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
       <c r="AD67" s="8"/>
-      <c r="AE67" s="51"/>
-      <c r="AF67" s="62"/>
-      <c r="AG67" s="62"/>
-      <c r="AH67" s="9"/>
-      <c r="AJ67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="77"/>
+      <c r="AI67" s="78"/>
+      <c r="AJ67" s="78"/>
     </row>
     <row r="68" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>55</v>
+      <c r="A68" s="75" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="8">
         <v>0</v>
@@ -23566,14 +23034,12 @@
       <c r="AD68" s="8">
         <v>0</v>
       </c>
-      <c r="AE68" s="51"/>
-      <c r="AF68" s="62"/>
-      <c r="AG68" s="62"/>
-      <c r="AH68" s="9"/>
-      <c r="AJ68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="77"/>
+      <c r="AI68" s="78"/>
+      <c r="AJ68" s="78"/>
     </row>
     <row r="69" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
@@ -23606,18 +23072,16 @@
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
       <c r="AD69" s="8"/>
-      <c r="AE69" s="51"/>
-      <c r="AF69" s="62"/>
-      <c r="AG69" s="62"/>
-      <c r="AH69" s="9"/>
-      <c r="AJ69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="77"/>
+      <c r="AI69" s="78"/>
+      <c r="AJ69" s="78"/>
     </row>
     <row r="70" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -23648,210 +23112,208 @@
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
       <c r="AD70" s="8"/>
-      <c r="AE70" s="51"/>
-      <c r="AF70" s="62"/>
-      <c r="AG70" s="62"/>
-      <c r="AH70" s="9"/>
-      <c r="AJ70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="77"/>
+      <c r="AI70" s="78"/>
+      <c r="AJ70" s="78"/>
     </row>
     <row r="71" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="41">
+      <c r="A71" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="39">
         <v>1.9</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="39">
         <v>1.9</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="39">
         <v>2.1</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="39">
         <v>2.1</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="39">
         <v>2.1</v>
       </c>
-      <c r="G71" s="41">
+      <c r="G71" s="39">
         <v>2.1</v>
       </c>
-      <c r="H71" s="41">
-        <v>0</v>
-      </c>
-      <c r="I71" s="41">
+      <c r="H71" s="39">
+        <v>0</v>
+      </c>
+      <c r="I71" s="39">
         <v>1.9</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="39">
         <v>2</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K71" s="39">
         <v>2.1</v>
       </c>
-      <c r="L71" s="41">
+      <c r="L71" s="39">
         <v>2</v>
       </c>
-      <c r="M71" s="41">
+      <c r="M71" s="39">
         <v>1.9</v>
       </c>
-      <c r="N71" s="41">
+      <c r="N71" s="39">
         <v>1.9</v>
       </c>
-      <c r="O71" s="41">
-        <v>0</v>
-      </c>
-      <c r="P71" s="41">
+      <c r="O71" s="39">
+        <v>0</v>
+      </c>
+      <c r="P71" s="39">
         <v>2</v>
       </c>
-      <c r="Q71" s="41">
+      <c r="Q71" s="39">
         <v>2</v>
       </c>
-      <c r="R71" s="41">
+      <c r="R71" s="39">
         <v>2</v>
       </c>
-      <c r="S71" s="41">
+      <c r="S71" s="39">
         <v>2</v>
       </c>
-      <c r="T71" s="41">
+      <c r="T71" s="39">
         <v>2</v>
       </c>
-      <c r="U71" s="41">
+      <c r="U71" s="39">
         <v>2</v>
       </c>
-      <c r="V71" s="41">
-        <v>0</v>
-      </c>
-      <c r="W71" s="41">
-        <v>0</v>
-      </c>
-      <c r="X71" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="41">
+      <c r="V71" s="39">
+        <v>0</v>
+      </c>
+      <c r="W71" s="39">
+        <v>0</v>
+      </c>
+      <c r="X71" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="39">
         <v>2</v>
       </c>
-      <c r="Z71" s="41">
+      <c r="Z71" s="39">
         <v>2</v>
       </c>
-      <c r="AA71" s="41">
+      <c r="AA71" s="39">
         <v>2</v>
       </c>
-      <c r="AB71" s="41">
+      <c r="AB71" s="39">
         <v>1.9</v>
       </c>
-      <c r="AC71" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="41">
+      <c r="AC71" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="39">
         <v>1.6</v>
       </c>
-      <c r="AE71" s="60"/>
-      <c r="AF71" s="71"/>
-      <c r="AG71" s="71"/>
-      <c r="AH71" s="42"/>
-      <c r="AJ71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AE71" s="58"/>
+      <c r="AF71" s="40"/>
+      <c r="AG71" s="40"/>
+      <c r="AH71" s="88"/>
+      <c r="AI71" s="78"/>
+      <c r="AJ71" s="78"/>
     </row>
     <row r="72" spans="1:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="41">
+      <c r="A72" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="39">
         <v>1.3</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="39">
         <v>1.3</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="39">
         <v>1.3</v>
       </c>
-      <c r="G72" s="41">
+      <c r="G72" s="39">
         <v>1.3</v>
       </c>
-      <c r="H72" s="41">
-        <v>0</v>
-      </c>
-      <c r="I72" s="41">
+      <c r="H72" s="39">
+        <v>0</v>
+      </c>
+      <c r="I72" s="39">
         <v>1.5</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K72" s="39">
         <v>2.4</v>
       </c>
-      <c r="L72" s="41">
+      <c r="L72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M72" s="41">
+      <c r="M72" s="39">
         <v>2</v>
       </c>
-      <c r="N72" s="41">
+      <c r="N72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O72" s="41">
-        <v>0</v>
-      </c>
-      <c r="P72" s="41">
+      <c r="O72" s="39">
+        <v>0</v>
+      </c>
+      <c r="P72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q72" s="41">
+      <c r="Q72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R72" s="41">
+      <c r="R72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S72" s="41">
+      <c r="S72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T72" s="41">
+      <c r="T72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U72" s="41">
+      <c r="U72" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V72" s="41">
-        <v>0</v>
-      </c>
-      <c r="W72" s="41">
-        <v>0</v>
-      </c>
-      <c r="X72" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="41">
+      <c r="V72" s="39">
+        <v>0</v>
+      </c>
+      <c r="W72" s="39">
+        <v>0</v>
+      </c>
+      <c r="X72" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="39">
         <v>2.1</v>
       </c>
-      <c r="Z72" s="41">
+      <c r="Z72" s="39">
         <v>2.1</v>
       </c>
-      <c r="AA72" s="41">
+      <c r="AA72" s="39">
         <v>2.1</v>
       </c>
-      <c r="AB72" s="41">
+      <c r="AB72" s="39">
         <v>2.1</v>
       </c>
-      <c r="AC72" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="41">
+      <c r="AC72" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="39">
         <v>1.3</v>
       </c>
-      <c r="AE72" s="60"/>
-      <c r="AF72" s="71"/>
-      <c r="AG72" s="71"/>
-      <c r="AH72" s="42"/>
+      <c r="AE72" s="58"/>
+      <c r="AF72" s="40"/>
+      <c r="AG72" s="40"/>
+      <c r="AH72" s="88"/>
+      <c r="AI72" s="78"/>
+      <c r="AJ72" s="78"/>
     </row>
     <row r="73" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="34"/>
@@ -23884,14 +23346,14 @@
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
       <c r="AD73" s="8"/>
-      <c r="AE73" s="51"/>
-      <c r="AF73" s="62"/>
-      <c r="AG73" s="62"/>
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
       <c r="AH73" s="9"/>
     </row>
     <row r="74" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74" s="8">
         <v>3200</v>
@@ -23980,14 +23442,14 @@
       <c r="AD74" s="8">
         <v>3300</v>
       </c>
-      <c r="AE74" s="51"/>
-      <c r="AF74" s="62"/>
-      <c r="AG74" s="62"/>
+      <c r="AE74" s="49"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
       <c r="AH74" s="9"/>
     </row>
     <row r="75" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B75" s="8">
         <v>15</v>
@@ -24076,14 +23538,14 @@
       <c r="AD75" s="8">
         <v>5</v>
       </c>
-      <c r="AE75" s="51"/>
-      <c r="AF75" s="62"/>
-      <c r="AG75" s="62"/>
+      <c r="AE75" s="49"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
       <c r="AH75" s="9"/>
     </row>
     <row r="76" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B76" s="8">
         <v>144</v>
@@ -24172,14 +23634,14 @@
       <c r="AD76" s="8">
         <v>65</v>
       </c>
-      <c r="AE76" s="51"/>
-      <c r="AF76" s="62"/>
-      <c r="AG76" s="62"/>
+      <c r="AE76" s="49"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
       <c r="AH76" s="9"/>
     </row>
     <row r="77" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B77" s="8">
         <v>157</v>
@@ -24268,17 +23730,17 @@
       <c r="AD77" s="8">
         <v>56</v>
       </c>
-      <c r="AE77" s="51"/>
-      <c r="AF77" s="62"/>
-      <c r="AG77" s="62"/>
+      <c r="AE77" s="49"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
       <c r="AH77" s="9"/>
     </row>
     <row r="78" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="8">
         <v>460</v>
@@ -24348,46 +23810,46 @@
         <v>0</v>
       </c>
       <c r="AD78" s="8"/>
-      <c r="AE78" s="51"/>
-      <c r="AF78" s="62"/>
-      <c r="AG78" s="62"/>
+      <c r="AE78" s="49"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
       <c r="AH78" s="9"/>
       <c r="AI78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A79" s="43"/>
+      <c r="A79" s="41"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A80" s="43"/>
+      <c r="A80" s="41"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43"/>
+      <c r="A81" s="41"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="43"/>
+      <c r="A82" s="41"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
+      <c r="A83" s="41"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
+      <c r="A84" s="41"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="43"/>
+      <c r="A85" s="41"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
+      <c r="A86" s="42"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
+      <c r="A87" s="42"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
+      <c r="A88" s="42"/>
     </row>
     <row r="107" spans="36:36" x14ac:dyDescent="0.3">
-      <c r="AJ107" s="45"/>
+      <c r="AJ107" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47948E-AD8F-4724-A71F-EFC4E782EDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF2B3A-5925-4C41-9E11-2C229F65EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APR-25" sheetId="1" r:id="rId1"/>
@@ -2452,7 +2452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -2666,6 +2666,9 @@
   <si>
     <t>Punching Rejection %</t>
   </si>
+  <si>
+    <t>Solar Generation (NEW) 214(menus)</t>
+  </si>
 </sst>
 </file>
 
@@ -2814,7 +2817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2854,6 +2857,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,7 +2933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3132,49 +3147,31 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3462,9 +3459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42"/>
+      <selection pane="topRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4822,7 +4819,7 @@
       <c r="AJ16" s="22"/>
     </row>
     <row r="17" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="8">
@@ -5871,7 +5868,7 @@
       <c r="AJ27" s="22"/>
     </row>
     <row r="28" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="27">
@@ -5998,7 +5995,7 @@
       <c r="AJ28" s="22"/>
     </row>
     <row r="29" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -7118,7 +7115,7 @@
       <c r="AI42" s="16"/>
     </row>
     <row r="43" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -7673,7 +7670,7 @@
       <c r="AI48" s="9"/>
     </row>
     <row r="49" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -7860,7 +7857,7 @@
       <c r="AI53" s="9"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -8126,7 +8123,7 @@
       <c r="AI57" s="9"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="79" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="8">
@@ -8223,7 +8220,7 @@
       <c r="AI58" s="9"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="79" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="8">
@@ -8320,7 +8317,7 @@
       <c r="AI59" s="9"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="79" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="8">
@@ -8417,7 +8414,7 @@
       <c r="AI60" s="9"/>
     </row>
     <row r="61" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="80" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="36">
@@ -8546,7 +8543,7 @@
       <c r="AI61" s="69"/>
     </row>
     <row r="62" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -8678,7 +8675,7 @@
       <c r="AI63" s="9"/>
     </row>
     <row r="64" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="81" t="s">
         <v>50</v>
       </c>
       <c r="B64" s="8">
@@ -8775,7 +8772,7 @@
       <c r="AI64" s="9"/>
     </row>
     <row r="65" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="82" t="s">
         <v>51</v>
       </c>
       <c r="B65" s="8">
@@ -8872,7 +8869,7 @@
       <c r="AI65" s="9"/>
     </row>
     <row r="66" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="82" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="15">
@@ -9000,7 +8997,7 @@
       <c r="AI66" s="16"/>
     </row>
     <row r="67" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -9132,7 +9129,7 @@
       <c r="AI68" s="9"/>
     </row>
     <row r="69" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -9402,7 +9399,7 @@
       <c r="AI72" s="40"/>
     </row>
     <row r="73" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -9437,8 +9434,8 @@
       <c r="AI73" s="9"/>
     </row>
     <row r="74" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>56</v>
+      <c r="A74" s="80" t="s">
+        <v>71</v>
       </c>
       <c r="B74" s="8">
         <v>0</v>
@@ -9534,7 +9531,7 @@
       <c r="AI74" s="9"/>
     </row>
     <row r="75" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="80" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="8">
@@ -9631,7 +9628,7 @@
       <c r="AI75" s="9"/>
     </row>
     <row r="76" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="81" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="8">
@@ -9728,7 +9725,7 @@
       <c r="AI76" s="9"/>
     </row>
     <row r="77" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="81" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="8">
@@ -9825,7 +9822,7 @@
       <c r="AI77" s="9"/>
     </row>
     <row r="78" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="81" t="s">
         <v>68</v>
       </c>
       <c r="B78" s="8">
@@ -9922,7 +9919,7 @@
       <c r="AI78" s="9"/>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
+      <c r="A79" s="85"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
@@ -9965,7 +9962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D45" sqref="D45"/>
     </sheetView>
@@ -17402,9 +17399,8 @@
       </c>
       <c r="AF1" s="59"/>
       <c r="AG1" s="59"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="93"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="68"/>
       <c r="AK1" s="9"/>
     </row>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
@@ -17441,9 +17437,7 @@
       <c r="AE2" s="49"/>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
+      <c r="AH2" s="9"/>
     </row>
     <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
@@ -17539,9 +17533,7 @@
       <c r="AE3" s="49"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
+      <c r="AH3" s="9"/>
     </row>
     <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
@@ -17595,9 +17587,7 @@
       <c r="AE4" s="49"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
+      <c r="AH4" s="9"/>
     </row>
     <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -17651,9 +17641,7 @@
       <c r="AE5" s="49"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
+      <c r="AH5" s="9"/>
     </row>
     <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
@@ -17749,9 +17737,7 @@
       <c r="AE6" s="49"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
+      <c r="AH6" s="9"/>
     </row>
     <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
@@ -17847,9 +17833,8 @@
       <c r="AE7" s="49"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="78"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="47"/>
     </row>
     <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -17943,9 +17928,7 @@
       <c r="AE8" s="49"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
+      <c r="AH8" s="9"/>
     </row>
     <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
@@ -18066,9 +18049,7 @@
       <c r="AE9" s="50"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
+      <c r="AH9" s="12"/>
     </row>
     <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
@@ -18162,9 +18143,7 @@
       <c r="AE10" s="49"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
+      <c r="AH10" s="9"/>
     </row>
     <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
@@ -18285,9 +18264,7 @@
       <c r="AE11" s="51"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
+      <c r="AH11" s="16"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
@@ -18381,9 +18358,8 @@
       <c r="AE12" s="52"/>
       <c r="AF12" s="60"/>
       <c r="AG12" s="60"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="78"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="21"/>
       <c r="AK12" s="21"/>
     </row>
     <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
@@ -18480,9 +18456,8 @@
       <c r="AE13" s="49"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="78"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="22"/>
     </row>
     <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
@@ -18578,9 +18553,8 @@
       <c r="AE14" s="49"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="78"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="22"/>
     </row>
     <row r="15" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
@@ -18676,9 +18650,8 @@
       <c r="AE15" s="49"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="78"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="22"/>
     </row>
     <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -18714,11 +18687,10 @@
       <c r="AE16" s="49"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="78"/>
-    </row>
-    <row r="17" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="22"/>
+    </row>
+    <row r="17" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>13</v>
       </c>
@@ -18812,11 +18784,10 @@
       <c r="AE17" s="49"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="78"/>
-    </row>
-    <row r="18" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="22"/>
+    </row>
+    <row r="18" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>14</v>
       </c>
@@ -18910,11 +18881,10 @@
       <c r="AE18" s="49"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="78"/>
-    </row>
-    <row r="19" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="22"/>
+    </row>
+    <row r="19" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
@@ -19008,11 +18978,10 @@
       <c r="AE19" s="49"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="78"/>
-    </row>
-    <row r="20" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="22"/>
+    </row>
+    <row r="20" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>16</v>
       </c>
@@ -19106,11 +19075,10 @@
       <c r="AE20" s="49"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="78"/>
-    </row>
-    <row r="21" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="22"/>
+    </row>
+    <row r="21" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>17</v>
       </c>
@@ -19204,11 +19172,10 @@
       <c r="AE21" s="49"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="78"/>
-    </row>
-    <row r="22" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="22"/>
+    </row>
+    <row r="22" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>18</v>
       </c>
@@ -19302,11 +19269,10 @@
       <c r="AE22" s="49"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="78"/>
-    </row>
-    <row r="23" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="22"/>
+    </row>
+    <row r="23" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -19340,11 +19306,10 @@
       <c r="AE23" s="49"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="78"/>
-    </row>
-    <row r="24" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="22"/>
+    </row>
+    <row r="24" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>19</v>
       </c>
@@ -19438,11 +19403,10 @@
       <c r="AE24" s="49"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="78"/>
-    </row>
-    <row r="25" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="22"/>
+    </row>
+    <row r="25" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="73" t="s">
         <v>20</v>
       </c>
@@ -19536,11 +19500,10 @@
       <c r="AE25" s="49"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="78"/>
-    </row>
-    <row r="26" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="22"/>
+    </row>
+    <row r="26" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
         <v>21</v>
       </c>
@@ -19661,11 +19624,10 @@
       <c r="AE26" s="53"/>
       <c r="AF26" s="61"/>
       <c r="AG26" s="61"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="78"/>
-    </row>
-    <row r="27" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="22"/>
+    </row>
+    <row r="27" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
         <v>22</v>
       </c>
@@ -19759,11 +19721,10 @@
       <c r="AE27" s="54"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="78"/>
-    </row>
-    <row r="28" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="22"/>
+    </row>
+    <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>23</v>
       </c>
@@ -19881,11 +19842,10 @@
       <c r="AE28" s="55"/>
       <c r="AF28" s="28"/>
       <c r="AG28" s="28"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="78"/>
-    </row>
-    <row r="29" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="22"/>
+    </row>
+    <row r="29" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -19919,11 +19879,10 @@
       <c r="AE29" s="49"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
-      <c r="AH29" s="77"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="78"/>
-    </row>
-    <row r="30" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="22"/>
+    </row>
+    <row r="30" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
         <v>24</v>
       </c>
@@ -20017,11 +19976,10 @@
       <c r="AE30" s="49"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="9"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="78"/>
-    </row>
-    <row r="31" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="22"/>
+    </row>
+    <row r="31" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="73" t="s">
         <v>25</v>
       </c>
@@ -20139,11 +20097,10 @@
       <c r="AE31" s="51"/>
       <c r="AF31" s="16"/>
       <c r="AG31" s="16"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="78"/>
-    </row>
-    <row r="32" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="22"/>
+    </row>
+    <row r="32" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -20177,9 +20134,8 @@
       <c r="AE32" s="49"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
-      <c r="AH32" s="77"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="78"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="22"/>
     </row>
     <row r="33" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
@@ -20267,9 +20223,8 @@
       <c r="AE33" s="49"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
-      <c r="AH33" s="77"/>
-      <c r="AI33" s="82"/>
-      <c r="AJ33" s="78"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="22"/>
     </row>
     <row r="34" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -20357,9 +20312,8 @@
       <c r="AE34" s="49"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
-      <c r="AH34" s="77"/>
-      <c r="AI34" s="82"/>
-      <c r="AJ34" s="78"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="22"/>
     </row>
     <row r="35" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
@@ -20397,9 +20351,7 @@
       <c r="AE35" s="49"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
-      <c r="AH35" s="77"/>
-      <c r="AI35" s="78"/>
-      <c r="AJ35" s="78"/>
+      <c r="AH35" s="9"/>
     </row>
     <row r="36" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
@@ -20435,9 +20387,8 @@
       <c r="AE36" s="49"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
-      <c r="AH36" s="77"/>
-      <c r="AI36" s="82"/>
-      <c r="AJ36" s="78"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="22"/>
     </row>
     <row r="37" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
@@ -20533,9 +20484,7 @@
       <c r="AE37" s="49"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
-      <c r="AH37" s="77"/>
-      <c r="AI37" s="78"/>
-      <c r="AJ37" s="78"/>
+      <c r="AH37" s="9"/>
     </row>
     <row r="38" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
@@ -20571,9 +20520,8 @@
       <c r="AE38" s="49"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
-      <c r="AH38" s="77"/>
-      <c r="AI38" s="82"/>
-      <c r="AJ38" s="78"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="22"/>
     </row>
     <row r="39" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="74" t="s">
@@ -20669,9 +20617,8 @@
       <c r="AE39" s="49"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
-      <c r="AH39" s="77"/>
-      <c r="AI39" s="77"/>
-      <c r="AJ39" s="78"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
     </row>
     <row r="40" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="73" t="s">
@@ -20767,9 +20714,7 @@
       <c r="AE40" s="49"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
-      <c r="AH40" s="77"/>
-      <c r="AI40" s="78"/>
-      <c r="AJ40" s="78"/>
+      <c r="AH40" s="9"/>
     </row>
     <row r="41" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="73" t="s">
@@ -20865,9 +20810,7 @@
       <c r="AE41" s="49"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="9"/>
-      <c r="AH41" s="77"/>
-      <c r="AI41" s="78"/>
-      <c r="AJ41" s="78"/>
+      <c r="AH41" s="9"/>
     </row>
     <row r="42" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="73" t="s">
@@ -20990,9 +20933,7 @@
       <c r="AE42" s="51"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="16"/>
-      <c r="AH42" s="81"/>
-      <c r="AI42" s="78"/>
-      <c r="AJ42" s="78"/>
+      <c r="AH42" s="16"/>
     </row>
     <row r="43" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
@@ -21028,9 +20969,7 @@
       <c r="AE43" s="49"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
-      <c r="AH43" s="77"/>
-      <c r="AI43" s="78"/>
-      <c r="AJ43" s="78"/>
+      <c r="AH43" s="9"/>
     </row>
     <row r="44" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
@@ -21126,9 +21065,8 @@
       <c r="AE44" s="49"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="9"/>
-      <c r="AH44" s="77"/>
-      <c r="AI44" s="77"/>
-      <c r="AJ44" s="78"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
     </row>
     <row r="45" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
@@ -21224,9 +21162,7 @@
       <c r="AE45" s="49"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="9"/>
-      <c r="AH45" s="77"/>
-      <c r="AI45" s="78"/>
-      <c r="AJ45" s="78"/>
+      <c r="AH45" s="9"/>
     </row>
     <row r="46" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
@@ -21322,9 +21258,8 @@
       <c r="AE46" s="49"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="9"/>
-      <c r="AH46" s="77"/>
-      <c r="AI46" s="85"/>
-      <c r="AJ46" s="78"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="30"/>
     </row>
     <row r="47" spans="1:36" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="73" t="s">
@@ -21449,9 +21384,8 @@
       <c r="AE47" s="56"/>
       <c r="AF47" s="32"/>
       <c r="AG47" s="32"/>
-      <c r="AH47" s="86"/>
-      <c r="AI47" s="85"/>
-      <c r="AJ47" s="78"/>
+      <c r="AH47" s="32"/>
+      <c r="AJ47"/>
     </row>
     <row r="48" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="73" t="s">
@@ -21547,11 +21481,9 @@
       <c r="AE48" s="49"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9"/>
-      <c r="AH48" s="77"/>
-      <c r="AI48" s="78"/>
-      <c r="AJ48" s="78"/>
-    </row>
-    <row r="49" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH48" s="9"/>
+    </row>
+    <row r="49" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -21585,11 +21517,9 @@
       <c r="AE49" s="49"/>
       <c r="AF49" s="9"/>
       <c r="AG49" s="9"/>
-      <c r="AH49" s="77"/>
-      <c r="AI49" s="78"/>
-      <c r="AJ49" s="78"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH49" s="9"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
         <v>38</v>
       </c>
@@ -21625,11 +21555,9 @@
       <c r="AE50" s="49"/>
       <c r="AF50" s="9"/>
       <c r="AG50" s="9"/>
-      <c r="AH50" s="77"/>
-      <c r="AI50" s="78"/>
-      <c r="AJ50" s="78"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH50" s="9"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>39</v>
       </c>
@@ -21671,11 +21599,9 @@
       <c r="AE51" s="49"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9"/>
-      <c r="AH51" s="77"/>
-      <c r="AI51" s="78"/>
-      <c r="AJ51" s="78"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH51" s="9"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
         <v>40</v>
       </c>
@@ -21713,11 +21639,9 @@
       <c r="AE52" s="49"/>
       <c r="AF52" s="9"/>
       <c r="AG52" s="9"/>
-      <c r="AH52" s="77"/>
-      <c r="AI52" s="78"/>
-      <c r="AJ52" s="78"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH52" s="9"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="s">
         <v>41</v>
       </c>
@@ -21753,11 +21677,9 @@
       <c r="AE53" s="49"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="9"/>
-      <c r="AH53" s="77"/>
-      <c r="AI53" s="78"/>
-      <c r="AJ53" s="78"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH53" s="9"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -21791,11 +21713,9 @@
       <c r="AE54" s="49"/>
       <c r="AF54" s="9"/>
       <c r="AG54" s="9"/>
-      <c r="AH54" s="77"/>
-      <c r="AI54" s="78"/>
-      <c r="AJ54" s="78"/>
-    </row>
-    <row r="55" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH54" s="9"/>
+    </row>
+    <row r="55" spans="1:34" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="75" t="s">
         <v>42</v>
       </c>
@@ -21889,11 +21809,9 @@
       <c r="AE55" s="49"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="9"/>
-      <c r="AH55" s="77"/>
-      <c r="AI55" s="78"/>
-      <c r="AJ55" s="78"/>
-    </row>
-    <row r="56" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH55" s="9"/>
+    </row>
+    <row r="56" spans="1:34" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="76" t="s">
         <v>43</v>
       </c>
@@ -21987,11 +21905,9 @@
       <c r="AE56" s="49"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="9"/>
-      <c r="AH56" s="77"/>
-      <c r="AI56" s="78"/>
-      <c r="AJ56" s="78"/>
-    </row>
-    <row r="57" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH56" s="9"/>
+    </row>
+    <row r="57" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>44</v>
       </c>
@@ -22027,11 +21943,9 @@
       <c r="AE57" s="49"/>
       <c r="AF57" s="9"/>
       <c r="AG57" s="9"/>
-      <c r="AH57" s="77"/>
-      <c r="AI57" s="78"/>
-      <c r="AJ57" s="78"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH57" s="9"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>45</v>
       </c>
@@ -22125,11 +22039,9 @@
       <c r="AE58" s="49"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="9"/>
-      <c r="AH58" s="77"/>
-      <c r="AI58" s="78"/>
-      <c r="AJ58" s="78"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH58" s="9"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
         <v>46</v>
       </c>
@@ -22223,11 +22135,9 @@
       <c r="AE59" s="49"/>
       <c r="AF59" s="9"/>
       <c r="AG59" s="9"/>
-      <c r="AH59" s="77"/>
-      <c r="AI59" s="78"/>
-      <c r="AJ59" s="78"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH59" s="9"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="66" t="s">
         <v>47</v>
       </c>
@@ -22321,11 +22231,9 @@
       <c r="AE60" s="49"/>
       <c r="AF60" s="9"/>
       <c r="AG60" s="9"/>
-      <c r="AH60" s="77"/>
-      <c r="AI60" s="78"/>
-      <c r="AJ60" s="78"/>
-    </row>
-    <row r="61" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH60" s="9"/>
+    </row>
+    <row r="61" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -22448,11 +22356,9 @@
       <c r="AE61" s="57"/>
       <c r="AF61" s="62"/>
       <c r="AG61" s="62"/>
-      <c r="AH61" s="87"/>
-      <c r="AI61" s="78"/>
-      <c r="AJ61" s="78"/>
-    </row>
-    <row r="62" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AH61" s="37"/>
+    </row>
+    <row r="62" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -22486,11 +22392,9 @@
       <c r="AE62" s="49"/>
       <c r="AF62" s="9"/>
       <c r="AG62" s="9"/>
-      <c r="AH62" s="77"/>
-      <c r="AI62" s="78"/>
-      <c r="AJ62" s="78"/>
-    </row>
-    <row r="63" spans="1:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AH62" s="9"/>
+    </row>
+    <row r="63" spans="1:34" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>49</v>
       </c>
@@ -22580,11 +22484,9 @@
       <c r="AE63" s="49"/>
       <c r="AF63" s="9"/>
       <c r="AG63" s="9"/>
-      <c r="AH63" s="77"/>
-      <c r="AI63" s="78"/>
-      <c r="AJ63" s="78"/>
-    </row>
-    <row r="64" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH63" s="9"/>
+    </row>
+    <row r="64" spans="1:34" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>50</v>
       </c>
@@ -22678,11 +22580,9 @@
       <c r="AE64" s="49"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="9"/>
-      <c r="AH64" s="77"/>
-      <c r="AI64" s="78"/>
-      <c r="AJ64" s="78"/>
-    </row>
-    <row r="65" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH64" s="9"/>
+    </row>
+    <row r="65" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="64" t="s">
         <v>51</v>
       </c>
@@ -22776,11 +22676,9 @@
       <c r="AE65" s="49"/>
       <c r="AF65" s="9"/>
       <c r="AG65" s="9"/>
-      <c r="AH65" s="77"/>
-      <c r="AI65" s="78"/>
-      <c r="AJ65" s="78"/>
-    </row>
-    <row r="66" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH65" s="9"/>
+    </row>
+    <row r="66" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A66" s="64" t="s">
         <v>69</v>
       </c>
@@ -22901,11 +22799,9 @@
       <c r="AE66" s="51"/>
       <c r="AF66" s="16"/>
       <c r="AG66" s="16"/>
-      <c r="AH66" s="81"/>
-      <c r="AI66" s="78"/>
-      <c r="AJ66" s="78"/>
-    </row>
-    <row r="67" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH66" s="16"/>
+    </row>
+    <row r="67" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -22939,11 +22835,9 @@
       <c r="AE67" s="49"/>
       <c r="AF67" s="9"/>
       <c r="AG67" s="9"/>
-      <c r="AH67" s="77"/>
-      <c r="AI67" s="78"/>
-      <c r="AJ67" s="78"/>
-    </row>
-    <row r="68" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH67" s="9"/>
+    </row>
+    <row r="68" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A68" s="75" t="s">
         <v>52</v>
       </c>
@@ -23037,11 +22931,9 @@
       <c r="AE68" s="49"/>
       <c r="AF68" s="9"/>
       <c r="AG68" s="9"/>
-      <c r="AH68" s="77"/>
-      <c r="AI68" s="78"/>
-      <c r="AJ68" s="78"/>
-    </row>
-    <row r="69" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH68" s="9"/>
+    </row>
+    <row r="69" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -23075,11 +22967,9 @@
       <c r="AE69" s="49"/>
       <c r="AF69" s="9"/>
       <c r="AG69" s="9"/>
-      <c r="AH69" s="77"/>
-      <c r="AI69" s="78"/>
-      <c r="AJ69" s="78"/>
-    </row>
-    <row r="70" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH69" s="9"/>
+    </row>
+    <row r="70" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>53</v>
       </c>
@@ -23115,11 +23005,9 @@
       <c r="AE70" s="49"/>
       <c r="AF70" s="9"/>
       <c r="AG70" s="9"/>
-      <c r="AH70" s="77"/>
-      <c r="AI70" s="78"/>
-      <c r="AJ70" s="78"/>
-    </row>
-    <row r="71" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH70" s="9"/>
+    </row>
+    <row r="71" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>54</v>
       </c>
@@ -23213,11 +23101,9 @@
       <c r="AE71" s="58"/>
       <c r="AF71" s="40"/>
       <c r="AG71" s="40"/>
-      <c r="AH71" s="88"/>
-      <c r="AI71" s="78"/>
-      <c r="AJ71" s="78"/>
-    </row>
-    <row r="72" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH71" s="40"/>
+    </row>
+    <row r="72" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>55</v>
       </c>
@@ -23311,11 +23197,9 @@
       <c r="AE72" s="58"/>
       <c r="AF72" s="40"/>
       <c r="AG72" s="40"/>
-      <c r="AH72" s="88"/>
-      <c r="AI72" s="78"/>
-      <c r="AJ72" s="78"/>
-    </row>
-    <row r="73" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH72" s="40"/>
+    </row>
+    <row r="73" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="34"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -23351,7 +23235,7 @@
       <c r="AG73" s="9"/>
       <c r="AH73" s="9"/>
     </row>
-    <row r="74" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>56</v>
       </c>
@@ -23447,7 +23331,7 @@
       <c r="AG74" s="9"/>
       <c r="AH74" s="9"/>
     </row>
-    <row r="75" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>57</v>
       </c>
@@ -23543,7 +23427,7 @@
       <c r="AG75" s="9"/>
       <c r="AH75" s="9"/>
     </row>
-    <row r="76" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>58</v>
       </c>
@@ -23639,7 +23523,7 @@
       <c r="AG76" s="9"/>
       <c r="AH76" s="9"/>
     </row>
-    <row r="77" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>59</v>
       </c>
@@ -23735,7 +23619,7 @@
       <c r="AG77" s="9"/>
       <c r="AH77" s="9"/>
     </row>
-    <row r="78" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>68</v>
       </c>
@@ -23818,10 +23702,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">

--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF2B3A-5925-4C41-9E11-2C229F65EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04844E98-D488-4B7E-A1D0-C6176BA6D7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2452,7 +2452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -2667,7 +2667,7 @@
     <t>Punching Rejection %</t>
   </si>
   <si>
-    <t>Solar Generation (NEW) 214(menus)</t>
+    <t>GOCK GOCK</t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2678,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2816,6 +2816,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2862,13 +2869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2933,7 +2940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3147,31 +3154,34 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3461,7 +3471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F86" sqref="F86"/>
+      <selection pane="topRight" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3611,7 +3621,7 @@
       <c r="AI2" s="9"/>
     </row>
     <row r="3" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -4819,7 +4829,7 @@
       <c r="AJ16" s="22"/>
     </row>
     <row r="17" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="81" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="8">
@@ -5541,7 +5551,7 @@
       <c r="AJ24" s="22"/>
     </row>
     <row r="25" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="81" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="24">
@@ -5639,7 +5649,7 @@
       <c r="AJ25" s="22"/>
     </row>
     <row r="26" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="81" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="24">
@@ -5768,7 +5778,7 @@
       <c r="AJ26" s="22"/>
     </row>
     <row r="27" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="81" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="24">
@@ -5868,7 +5878,7 @@
       <c r="AJ27" s="22"/>
     </row>
     <row r="28" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="27">
@@ -5995,7 +6005,7 @@
       <c r="AJ28" s="22"/>
     </row>
     <row r="29" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -6031,7 +6041,7 @@
       <c r="AJ29" s="22"/>
     </row>
     <row r="30" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="81" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="8">
@@ -6129,7 +6139,7 @@
       <c r="AJ30" s="22"/>
     </row>
     <row r="31" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="81" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="15">
@@ -6694,7 +6704,7 @@
       <c r="AJ38" s="22"/>
     </row>
     <row r="39" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="8">
@@ -6792,7 +6802,7 @@
       <c r="AJ39" s="9"/>
     </row>
     <row r="40" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="81" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="8">
@@ -6889,7 +6899,7 @@
       <c r="AI40" s="9"/>
     </row>
     <row r="41" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="81" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="8">
@@ -6986,7 +6996,7 @@
       <c r="AI41" s="9"/>
     </row>
     <row r="42" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="81" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="15">
@@ -7115,7 +7125,7 @@
       <c r="AI42" s="16"/>
     </row>
     <row r="43" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -7150,7 +7160,7 @@
       <c r="AI43" s="9"/>
     </row>
     <row r="44" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="8">
@@ -7443,7 +7453,7 @@
       <c r="AJ46" s="30"/>
     </row>
     <row r="47" spans="1:37" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="81" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="31">
@@ -7573,7 +7583,7 @@
       <c r="AK47"/>
     </row>
     <row r="48" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="81" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="8">
@@ -7670,7 +7680,7 @@
       <c r="AI48" s="9"/>
     </row>
     <row r="49" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -7857,7 +7867,7 @@
       <c r="AI53" s="9"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -7892,7 +7902,7 @@
       <c r="AI54" s="9"/>
     </row>
     <row r="55" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="83" t="s">
         <v>42</v>
       </c>
       <c r="B55" s="8">
@@ -7989,7 +7999,7 @@
       <c r="AI55" s="9"/>
     </row>
     <row r="56" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="84" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="8">
@@ -8123,7 +8133,7 @@
       <c r="AI57" s="9"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="8">
@@ -8220,7 +8230,7 @@
       <c r="AI58" s="9"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="78" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="8">
@@ -8317,7 +8327,7 @@
       <c r="AI59" s="9"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="78" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="8">
@@ -8414,7 +8424,7 @@
       <c r="AI60" s="9"/>
     </row>
     <row r="61" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="82" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="36">
@@ -8543,7 +8553,7 @@
       <c r="AI61" s="69"/>
     </row>
     <row r="62" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -8675,7 +8685,7 @@
       <c r="AI63" s="9"/>
     </row>
     <row r="64" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="83" t="s">
         <v>50</v>
       </c>
       <c r="B64" s="8">
@@ -8772,7 +8782,7 @@
       <c r="AI64" s="9"/>
     </row>
     <row r="65" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="85" t="s">
         <v>51</v>
       </c>
       <c r="B65" s="8">
@@ -8869,7 +8879,7 @@
       <c r="AI65" s="9"/>
     </row>
     <row r="66" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="85" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="15">
@@ -8997,7 +9007,7 @@
       <c r="AI66" s="16"/>
     </row>
     <row r="67" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="83"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -9032,7 +9042,7 @@
       <c r="AI67" s="9"/>
     </row>
     <row r="68" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="83" t="s">
         <v>52</v>
       </c>
       <c r="B68" s="8">
@@ -9129,7 +9139,7 @@
       <c r="AI68" s="9"/>
     </row>
     <row r="69" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="83"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -9399,7 +9409,7 @@
       <c r="AI72" s="40"/>
     </row>
     <row r="73" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="83"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -9434,8 +9444,8 @@
       <c r="AI73" s="9"/>
     </row>
     <row r="74" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="80" t="s">
-        <v>71</v>
+      <c r="A74" s="82" t="s">
+        <v>56</v>
       </c>
       <c r="B74" s="8">
         <v>0</v>
@@ -9531,7 +9541,7 @@
       <c r="AI74" s="9"/>
     </row>
     <row r="75" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="80" t="s">
+      <c r="A75" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="8">
@@ -9628,7 +9638,7 @@
       <c r="AI75" s="9"/>
     </row>
     <row r="76" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A76" s="81" t="s">
+      <c r="A76" s="83" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="8">
@@ -9725,7 +9735,7 @@
       <c r="AI76" s="9"/>
     </row>
     <row r="77" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A77" s="81" t="s">
+      <c r="A77" s="83" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="8">
@@ -9822,7 +9832,7 @@
       <c r="AI77" s="9"/>
     </row>
     <row r="78" spans="1:35" ht="18" x14ac:dyDescent="0.3">
-      <c r="A78" s="81" t="s">
+      <c r="A78" s="83" t="s">
         <v>68</v>
       </c>
       <c r="B78" s="8">
@@ -9918,8 +9928,31 @@
       <c r="AH78" s="9"/>
       <c r="AI78" s="9"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A79" s="85"/>
+    <row r="79" spans="1:35" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="9">
+        <v>21</v>
+      </c>
+      <c r="C79" s="9">
+        <v>32</v>
+      </c>
+      <c r="D79" s="9">
+        <v>45</v>
+      </c>
+      <c r="E79" s="9">
+        <v>67</v>
+      </c>
+      <c r="F79" s="9">
+        <v>89</v>
+      </c>
+      <c r="G79" s="9">
+        <v>21</v>
+      </c>
+      <c r="H79" s="9">
+        <v>544</v>
+      </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
@@ -9962,7 +9995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D45" sqref="D45"/>
     </sheetView>
